--- a/Screen_Mapping_10162018.xlsx
+++ b/Screen_Mapping_10162018.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21009"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10812"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18EFE83A-BD0D-4085-AD81-11311B72DFBD}" xr6:coauthVersionLast="39" xr6:coauthVersionMax="39" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F48F175-F180-054C-911E-D2F5F5313520}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="39" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping" sheetId="3" r:id="rId1"/>
@@ -149,7 +149,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -707,29 +707,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K516"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="K514" sqref="A482:K514"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="19" width="12.140625" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="12.42578125" style="1"/>
+    <col min="1" max="1" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="19" width="12.1640625" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="12.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -750,7 +750,7 @@
       <c r="J1" s="21"/>
       <c r="K1" s="21"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>4</v>
       </c>
@@ -785,7 +785,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -855,7 +855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -890,7 +890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -925,7 +925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -960,7 +960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.75">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.75">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.75">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15.75">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15.75">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1450,7 +1450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.75">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.75">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15.75">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15.75">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15.75">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15.75">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15.75">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15.75">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15.75">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15.75">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1800,7 +1800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15.75">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15.75">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="15.75">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="15.75">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="15.75">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="15.75">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="15.75">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2045,7 +2045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="15.75">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2080,7 +2080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="15.75">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="15.75">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2150,7 +2150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15.75">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2185,7 +2185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="15.75">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2220,7 +2220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="15.75">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="15.75">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="15.75">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2325,7 +2325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="15.75">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2360,7 +2360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="15.75">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2395,7 +2395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="15.75">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="15.75">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2465,7 +2465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="15.75">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="15.75">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2535,7 +2535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="15.75">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2570,7 +2570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="15.75">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="15.75">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="15.75">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2675,7 +2675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="15.75">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="15.75">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2745,7 +2745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="15.75">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2780,7 +2780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="15.75">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="15.75">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2850,7 +2850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="15.75">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2885,7 +2885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="15.75">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2920,7 +2920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="15.75">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="15.75">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2990,7 +2990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="15.75">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -3025,7 +3025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="15.75">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -3060,7 +3060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="15.75">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="15.75">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="15.75">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -3165,7 +3165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="15.75">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="15.75">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="15.75">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -3270,7 +3270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="15.75">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="15.75">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -3340,7 +3340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="15.75">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -3375,7 +3375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="15.75">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -3410,7 +3410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="15.75">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -3445,7 +3445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="15.75">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="15.75">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -3515,7 +3515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="15.75">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="15.75">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="15.75">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -3620,7 +3620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="15.75">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="15.75">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -3690,7 +3690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="15.75">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -3725,7 +3725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="15.75">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="15.75">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -3795,7 +3795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="15.75">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -3830,7 +3830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="15.75">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -3865,7 +3865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="15.75">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="15.75">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -3935,7 +3935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="15.75">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -3970,7 +3970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="15.75">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -4005,7 +4005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="15.75">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -4040,7 +4040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="15.75">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -4075,7 +4075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="15.75">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -4110,7 +4110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="15.75">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -4145,7 +4145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="15.75">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="15.75">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -4215,7 +4215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="15.75">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -4250,7 +4250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="15.75">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -4285,7 +4285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="15.75">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -4320,7 +4320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="15.75">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -4355,7 +4355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="15.75">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -4390,7 +4390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="15.75">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -4425,7 +4425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="15.75">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -4460,7 +4460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="15.75">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -4495,7 +4495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="15.75">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -4530,7 +4530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="15.75">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -4565,7 +4565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="15.75">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -4600,7 +4600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="15.75">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -4635,7 +4635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="15.75">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -4670,7 +4670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="15.75">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -4705,7 +4705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="15.75">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -4740,7 +4740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="15.75">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -4775,7 +4775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="15.75">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -4810,7 +4810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="15.75">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -4845,7 +4845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="15.75">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -4880,7 +4880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="15.75">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -4915,7 +4915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="15.75">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -4950,7 +4950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="15.75">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -4985,7 +4985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="15.75">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -5020,7 +5020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="15.75">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -5055,7 +5055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="15.75">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -5090,7 +5090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="15.75">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -5125,7 +5125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="15.75">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -5160,7 +5160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="15.75">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -5195,7 +5195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:11" ht="15.75">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -5230,7 +5230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:11" ht="15.75">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -5265,7 +5265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:11" ht="15.75">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -5300,7 +5300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:11" ht="15.75">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -5335,7 +5335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="15.75">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -5370,7 +5370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:11" ht="15.75">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -5405,7 +5405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:11" ht="15.75">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -5440,7 +5440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="15.75">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -5475,7 +5475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:11" ht="15.75">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -5510,7 +5510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:11" ht="15.75">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -5545,7 +5545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:11" ht="15.75">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -5580,7 +5580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:11" ht="15.75">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -5615,7 +5615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:11" ht="15.75">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -5650,7 +5650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:11" ht="15.75">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -5685,7 +5685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:11" ht="15.75">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -5720,7 +5720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:11" ht="15.75">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -5755,7 +5755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:11" ht="15.75">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -5790,7 +5790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:11" ht="15.75">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -5825,7 +5825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:11" ht="15.75">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -5860,7 +5860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:11" ht="15.75">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -5895,7 +5895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:11" ht="15.75">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -5930,7 +5930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:11" ht="15.75">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -5965,7 +5965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:11" ht="15.75">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -6000,7 +6000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:11" ht="15.75">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -6035,7 +6035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:11" ht="15.75">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -6070,7 +6070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:11" ht="15.75">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -6105,7 +6105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:11" ht="15.75">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -6140,7 +6140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:11" ht="15.75">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -6175,7 +6175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:11" ht="15.75">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -6210,7 +6210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:11" ht="15.75">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -6245,7 +6245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:11" ht="15.75">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -6280,7 +6280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:11" ht="15.75">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -6315,7 +6315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:11" ht="15.75">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -6350,7 +6350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:11" ht="15.75">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -6385,7 +6385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:11" ht="15.75">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -6420,7 +6420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:11" ht="15.75">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -6455,7 +6455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:11" ht="15.75">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -6490,7 +6490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:11" ht="15.75">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -6525,7 +6525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:11" ht="15.75">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -6560,7 +6560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:11" ht="15.75">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -6595,7 +6595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:11" ht="15.75">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -6630,7 +6630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:11" ht="15.75">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -6665,7 +6665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:11" ht="15.75">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -6700,7 +6700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:11" ht="15.75">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -6735,7 +6735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:11" ht="15.75">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -6770,7 +6770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:11" ht="15.75">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -6805,7 +6805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:11" ht="15.75">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -6840,7 +6840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:11" ht="15.75">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -6875,7 +6875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:11" ht="15.75">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -6910,7 +6910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:11" ht="15.75">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -6945,7 +6945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:11" ht="15.75">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -6980,7 +6980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:11" ht="15.75">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -7015,7 +7015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:11" ht="15.75">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -7050,7 +7050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:11" ht="15.75">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -7085,7 +7085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:11" ht="15.75">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -7120,7 +7120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:11" ht="15.75">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -7155,7 +7155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:11" ht="15.75">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -7190,7 +7190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:11" ht="15.75">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -7225,7 +7225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:11" ht="15.75">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -7260,7 +7260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:11" ht="15.75">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -7295,7 +7295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:11" ht="15.75">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -7330,7 +7330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:11" ht="15.75">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -7365,7 +7365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:11" ht="15.75">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -7400,7 +7400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:11" ht="15.75">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -7435,7 +7435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:11" ht="15.75">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -7470,7 +7470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:11" ht="15.75">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -7505,7 +7505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:11" ht="15.75">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -7540,7 +7540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:11" ht="15.75">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -7575,7 +7575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:11" ht="15.75">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -7610,7 +7610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:11" ht="15.75">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -7645,7 +7645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:11" ht="15.75">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -7680,7 +7680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:11" ht="15.75">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -7715,7 +7715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:11" ht="15.75">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -7750,7 +7750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:11" ht="15.75">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -7785,7 +7785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:11" ht="15.75">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -7820,7 +7820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:11" ht="15.75">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -7855,7 +7855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:11" ht="15.75">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -7890,7 +7890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:11" ht="15.75">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -7925,7 +7925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:11" ht="15.75">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -7960,7 +7960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:11" ht="15.75">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -7995,7 +7995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:11" ht="15.75">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -8030,7 +8030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:11" ht="15.75">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -8065,7 +8065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:11" ht="15.75">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -8100,7 +8100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:11" ht="15.75">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -8135,7 +8135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:11" ht="15.75">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -8170,7 +8170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:11" ht="15.75">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -8205,7 +8205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:11" ht="15.75">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -8240,7 +8240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:11" ht="15.75">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -8275,7 +8275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:11" ht="15.75">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -8310,7 +8310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:11" ht="15.75">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -8345,7 +8345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:11" ht="15.75">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -8380,7 +8380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:11" ht="15.75">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -8415,7 +8415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:11" ht="15.75">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:11" ht="15.75">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -8485,7 +8485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:11" ht="15.75">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -8520,7 +8520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:11" ht="15.75">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:11" ht="15.75">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -8590,7 +8590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:11" ht="15.75">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -8625,7 +8625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:11" ht="15.75">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -8660,7 +8660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:11" ht="15.75">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -8695,7 +8695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:11" ht="15.75">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -8730,7 +8730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:11" ht="15.75">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:11" ht="15.75">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -8800,7 +8800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:11" ht="15.75">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -8835,7 +8835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:11" ht="15.75">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -8870,7 +8870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:11" ht="15.75">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -8905,7 +8905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:11" ht="15.75">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -8940,7 +8940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:11" ht="15.75">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -8975,7 +8975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:11" ht="15.75">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -9010,7 +9010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:11" ht="15.75">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -9045,7 +9045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:11" ht="15.75">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -9080,7 +9080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:11" ht="15.75">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -9115,7 +9115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:11" ht="15.75">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -9150,7 +9150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:11" ht="15.75">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:11" ht="15.75">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -9220,7 +9220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:11" ht="15.75">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -9255,7 +9255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:11" ht="15.75">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -9290,7 +9290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:11" ht="15.75">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -9325,7 +9325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:11" ht="15.75">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -9360,7 +9360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:11" ht="15.75">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -9395,7 +9395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:11" ht="15.75">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -9430,7 +9430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:11" ht="15.75">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -9465,7 +9465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:11" ht="15.75">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:11" ht="15.75">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -9535,7 +9535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:11" ht="15.75">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -9570,7 +9570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:11" ht="15.75">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -9605,7 +9605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:11" ht="15.75">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -9640,7 +9640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:11" ht="15.75">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -9675,7 +9675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:11" ht="15.75">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -9710,7 +9710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:11" ht="15.75">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -9745,7 +9745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:11" ht="15.75">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -9780,7 +9780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:11" ht="15.75">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -9815,7 +9815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:11" ht="15.75">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -9850,7 +9850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:11" ht="15.75">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -9885,7 +9885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:11" ht="15.75">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -9920,7 +9920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:11" ht="15.75">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -9955,7 +9955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:11" ht="15.75">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -9990,7 +9990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:11" ht="15.75">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -10025,7 +10025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:11" ht="15.75">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -10060,7 +10060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:11" ht="15.75">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -10095,7 +10095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:11" ht="15.75">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:11" ht="15.75">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -10165,7 +10165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:11" ht="15.75">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -10200,7 +10200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:11" ht="15.75">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -10235,7 +10235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:11" ht="15.75">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -10270,7 +10270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:11" ht="15.75">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -10305,7 +10305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:11" ht="15.75">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -10340,7 +10340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:11" ht="15.75">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -10375,7 +10375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:11" ht="15.75">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -10410,7 +10410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:11" ht="15.75">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:11" ht="15.75">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -10480,7 +10480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:11" ht="15.75">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -10515,7 +10515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:11" ht="15.75">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -10550,7 +10550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:11" ht="15.75">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:11" ht="15.75">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -10620,7 +10620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:11" ht="15.75">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -10655,7 +10655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:11" ht="15.75">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -10690,7 +10690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:11" ht="15.75">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -10725,7 +10725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:11" ht="15.75">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -10760,7 +10760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:11" ht="15.75">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -10795,7 +10795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:11" ht="15.75">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -10830,7 +10830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:11" ht="15.75">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -10865,7 +10865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:11" ht="15.75">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -10900,7 +10900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:11" ht="15.75">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -10935,7 +10935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:11" ht="15.75">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -10970,7 +10970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:11" ht="15.75">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -11005,7 +11005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:11" ht="15.75">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -11040,7 +11040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:11" ht="15.75">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -11075,7 +11075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:11" ht="15.75">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -11110,7 +11110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:11" ht="15.75">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -11145,7 +11145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:11" ht="15.75">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -11180,7 +11180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:11" ht="15.75">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -11215,7 +11215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:11" ht="15.75">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -11250,7 +11250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:11" ht="15.75">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -11285,7 +11285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:11" ht="15.75">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:11" ht="15.75">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -11355,7 +11355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:11" ht="15.75">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -11390,7 +11390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:11" ht="15.75">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -11425,7 +11425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:11" ht="15.75">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -11460,7 +11460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:11" ht="15.75">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -11495,7 +11495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:11" ht="15.75">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -11530,7 +11530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:11" ht="15.75">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -11565,7 +11565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:11" ht="15.75">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -11600,7 +11600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:11" ht="15.75">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -11635,7 +11635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:11" ht="15.75">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -11670,7 +11670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:11" ht="15.75">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -11705,7 +11705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:11" ht="15.75">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -11740,7 +11740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:11" ht="15.75">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -11775,7 +11775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:11" ht="15.75">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -11810,7 +11810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:11" ht="15.75">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -11845,7 +11845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:11" ht="15.75">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -11880,7 +11880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:11" ht="15.75">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -11915,7 +11915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:11" ht="15.75">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -11950,7 +11950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:11" ht="15.75">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -11985,7 +11985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:11" ht="15.75">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -12020,7 +12020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:11" ht="15.75">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -12055,7 +12055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:11" ht="15.75">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -12090,7 +12090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:11" ht="15.75">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -12125,7 +12125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:11" ht="15.75">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -12160,7 +12160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:11" ht="15.75">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -12195,7 +12195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:11" ht="15.75">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -12230,7 +12230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:11" ht="15.75">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -12265,7 +12265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:11" ht="15.75">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>329</v>
       </c>
@@ -12300,7 +12300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:11" ht="15.75">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -12335,7 +12335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:11" ht="15.75">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -12370,7 +12370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:11" ht="15.75">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -12405,7 +12405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:11" ht="15.75">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -12440,7 +12440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:11" ht="15.75">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>334</v>
       </c>
@@ -12475,7 +12475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:11" ht="15.75">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -12510,7 +12510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:11" ht="15.75">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -12545,7 +12545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:11" ht="15.75">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>337</v>
       </c>
@@ -12580,7 +12580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:11" ht="15.75">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -12615,7 +12615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:11" ht="15.75">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -12650,7 +12650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:11" ht="15.75">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -12685,7 +12685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:11" ht="15.75">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>341</v>
       </c>
@@ -12720,7 +12720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:11" ht="15.75">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -12755,7 +12755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:11" ht="15.75">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>343</v>
       </c>
@@ -12790,7 +12790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:11" ht="15.75">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>344</v>
       </c>
@@ -12825,7 +12825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:11" ht="15.75">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>345</v>
       </c>
@@ -12860,7 +12860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:11" ht="15.75">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -12895,7 +12895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:11" ht="15.75">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>347</v>
       </c>
@@ -12930,7 +12930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:11" ht="15.75">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -12965,7 +12965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:11" ht="15.75">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -13000,7 +13000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:11" ht="15.75">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>350</v>
       </c>
@@ -13035,7 +13035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:11" ht="15.75">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>351</v>
       </c>
@@ -13070,7 +13070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:11" ht="15.75">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -13105,7 +13105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:11" ht="15.75">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>353</v>
       </c>
@@ -13140,7 +13140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:11" ht="15.75">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>354</v>
       </c>
@@ -13175,7 +13175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:11" ht="15.75">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>355</v>
       </c>
@@ -13210,7 +13210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:11" ht="15.75">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>356</v>
       </c>
@@ -13245,7 +13245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:11" ht="15.75">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>357</v>
       </c>
@@ -13280,7 +13280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:11" ht="15.75">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>358</v>
       </c>
@@ -13315,7 +13315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:11" ht="15.75">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>359</v>
       </c>
@@ -13350,7 +13350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:11" ht="15.75">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>360</v>
       </c>
@@ -13385,7 +13385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:11" ht="15.75">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>361</v>
       </c>
@@ -13420,7 +13420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:11" ht="15.75">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>362</v>
       </c>
@@ -13455,7 +13455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:11" ht="15.75">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>363</v>
       </c>
@@ -13490,7 +13490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:11" ht="15.75">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>364</v>
       </c>
@@ -13525,7 +13525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:11" ht="15.75">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>365</v>
       </c>
@@ -13560,7 +13560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:11" ht="15.75">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>366</v>
       </c>
@@ -13595,7 +13595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:11" ht="15.75">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>367</v>
       </c>
@@ -13630,7 +13630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:11" ht="15.75">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -13665,7 +13665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:11" ht="15.75">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>369</v>
       </c>
@@ -13700,7 +13700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:11" ht="15.75">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>370</v>
       </c>
@@ -13735,7 +13735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:11" ht="15.75">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>371</v>
       </c>
@@ -13770,7 +13770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:11" ht="15.75">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>372</v>
       </c>
@@ -13805,7 +13805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:11" ht="15.75">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>373</v>
       </c>
@@ -13840,7 +13840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:11" ht="15.75">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>374</v>
       </c>
@@ -13875,7 +13875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:11" ht="15.75">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>375</v>
       </c>
@@ -13910,7 +13910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:11" ht="15.75">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -13945,7 +13945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:11" ht="15.75">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>377</v>
       </c>
@@ -13980,7 +13980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:11" ht="15.75">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>378</v>
       </c>
@@ -14015,7 +14015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:11" ht="15.75">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>379</v>
       </c>
@@ -14050,7 +14050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:11" ht="15.75">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>380</v>
       </c>
@@ -14085,7 +14085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:11" ht="15.75">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>381</v>
       </c>
@@ -14120,7 +14120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:11" ht="15.75">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>382</v>
       </c>
@@ -14155,7 +14155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:11" ht="15.75">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>383</v>
       </c>
@@ -14190,7 +14190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:11" ht="15.75">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>384</v>
       </c>
@@ -14225,7 +14225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:11" ht="15.75">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>385</v>
       </c>
@@ -14260,7 +14260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:11" ht="15.75">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>386</v>
       </c>
@@ -14295,7 +14295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:11" ht="15.75">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>387</v>
       </c>
@@ -14330,7 +14330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:11" ht="15.75">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>388</v>
       </c>
@@ -14365,7 +14365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:11" ht="15.75">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>389</v>
       </c>
@@ -14400,7 +14400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:11" ht="15.75">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>390</v>
       </c>
@@ -14435,7 +14435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:11" ht="15.75">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>391</v>
       </c>
@@ -14470,7 +14470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:11" ht="15.75">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>392</v>
       </c>
@@ -14505,7 +14505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:11" ht="15.75">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>393</v>
       </c>
@@ -14540,7 +14540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:11" ht="15.75">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>394</v>
       </c>
@@ -14575,7 +14575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:11" ht="15.75">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>395</v>
       </c>
@@ -14610,7 +14610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:11" ht="15.75">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>396</v>
       </c>
@@ -14645,7 +14645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:11" ht="15.75">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>397</v>
       </c>
@@ -14680,7 +14680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:11" ht="15.75">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>398</v>
       </c>
@@ -14715,7 +14715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:11" ht="15.75">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>399</v>
       </c>
@@ -14750,7 +14750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:11" ht="15.75">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>400</v>
       </c>
@@ -14785,7 +14785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:11" ht="15.75">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>401</v>
       </c>
@@ -14820,7 +14820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:11" ht="15.75">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>402</v>
       </c>
@@ -14855,7 +14855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:11" ht="15.75">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>403</v>
       </c>
@@ -14890,7 +14890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:11" ht="15.75">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>404</v>
       </c>
@@ -14925,7 +14925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:11" ht="15.75">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>405</v>
       </c>
@@ -14960,7 +14960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:11" ht="15.75">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>406</v>
       </c>
@@ -14995,7 +14995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:11" ht="15.75">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>407</v>
       </c>
@@ -15030,7 +15030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:11" ht="15.75">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>408</v>
       </c>
@@ -15065,7 +15065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:11" ht="15.75">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>409</v>
       </c>
@@ -15100,7 +15100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:11" ht="15.75">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>410</v>
       </c>
@@ -15135,7 +15135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:11" ht="15.75">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>411</v>
       </c>
@@ -15170,7 +15170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:11" ht="15.75">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>412</v>
       </c>
@@ -15205,7 +15205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:11" ht="15.75">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>413</v>
       </c>
@@ -15240,7 +15240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:11" ht="15.75">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>414</v>
       </c>
@@ -15275,7 +15275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:11" ht="15.75">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>415</v>
       </c>
@@ -15310,7 +15310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:11" ht="15.75">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>416</v>
       </c>
@@ -15345,7 +15345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:11" ht="15.75">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>417</v>
       </c>
@@ -15380,7 +15380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:11" ht="15.75">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>418</v>
       </c>
@@ -15415,7 +15415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:11" ht="15.75">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>419</v>
       </c>
@@ -15450,7 +15450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:11" ht="15.75">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>420</v>
       </c>
@@ -15485,7 +15485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:11" ht="15.75">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>421</v>
       </c>
@@ -15520,7 +15520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:11" ht="15.75">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>422</v>
       </c>
@@ -15555,7 +15555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:11" ht="15.75">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>423</v>
       </c>
@@ -15590,7 +15590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:11" ht="15.75">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>424</v>
       </c>
@@ -15625,7 +15625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:11" ht="15.75">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>425</v>
       </c>
@@ -15660,7 +15660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:11" ht="15.75">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>426</v>
       </c>
@@ -15695,7 +15695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:11" ht="15.75">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>427</v>
       </c>
@@ -15730,7 +15730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:11" ht="15.75">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>428</v>
       </c>
@@ -15765,7 +15765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:11" ht="15.75">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>429</v>
       </c>
@@ -15800,7 +15800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:11" ht="15.75">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>430</v>
       </c>
@@ -15835,7 +15835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:11" ht="15.75">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>431</v>
       </c>
@@ -15870,7 +15870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:11" ht="15.75">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>432</v>
       </c>
@@ -15905,7 +15905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:11" ht="15.75">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>433</v>
       </c>
@@ -15940,7 +15940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:11" ht="15.75">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>434</v>
       </c>
@@ -15975,7 +15975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:11" ht="15.75">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>435</v>
       </c>
@@ -16010,7 +16010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:11" ht="15.75">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>436</v>
       </c>
@@ -16045,7 +16045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:11" ht="15.75">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>437</v>
       </c>
@@ -16080,7 +16080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:11" ht="15.75">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>438</v>
       </c>
@@ -16115,7 +16115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:11" ht="15.75">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>439</v>
       </c>
@@ -16150,7 +16150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:11" ht="15.75">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>440</v>
       </c>
@@ -16185,7 +16185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:11" ht="15.75">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>441</v>
       </c>
@@ -16220,7 +16220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:11" ht="15.75">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>442</v>
       </c>
@@ -16255,7 +16255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:11" ht="15.75">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>443</v>
       </c>
@@ -16290,7 +16290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:11" ht="15.75">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>444</v>
       </c>
@@ -16325,7 +16325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:11" ht="15.75">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>445</v>
       </c>
@@ -16360,7 +16360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:11" ht="15.75">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>446</v>
       </c>
@@ -16395,7 +16395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:11" ht="15.75">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>447</v>
       </c>
@@ -16430,7 +16430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:11" ht="15.75">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>448</v>
       </c>
@@ -16465,7 +16465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:11" ht="15.75">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>449</v>
       </c>
@@ -16500,7 +16500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:11" ht="15.75">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>450</v>
       </c>
@@ -16535,7 +16535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:11" ht="15.75">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>451</v>
       </c>
@@ -16570,7 +16570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:11" ht="15.75">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>452</v>
       </c>
@@ -16605,7 +16605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:11" ht="15.75">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>453</v>
       </c>
@@ -16640,7 +16640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:11" ht="15.75">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>454</v>
       </c>
@@ -16675,7 +16675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:11" ht="15.75">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>455</v>
       </c>
@@ -16710,7 +16710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:11" ht="15.75">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>456</v>
       </c>
@@ -16745,7 +16745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:11" ht="15.75">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>457</v>
       </c>
@@ -16780,7 +16780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:11" ht="15.75">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>458</v>
       </c>
@@ -16815,7 +16815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:11" ht="15.75">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>459</v>
       </c>
@@ -16850,7 +16850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:11" ht="15.75">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>460</v>
       </c>
@@ -16885,7 +16885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:11" ht="15.75">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>461</v>
       </c>
@@ -16920,7 +16920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:11" ht="15.75">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>462</v>
       </c>
@@ -16955,7 +16955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:11" ht="15.75">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>463</v>
       </c>
@@ -16990,7 +16990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:11" ht="15.75">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>464</v>
       </c>
@@ -17025,7 +17025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:11" ht="15.75">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>465</v>
       </c>
@@ -17060,7 +17060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:11" ht="15.75">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>466</v>
       </c>
@@ -17095,7 +17095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:11" ht="15.75">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>467</v>
       </c>
@@ -17130,7 +17130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:11" ht="15.75">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>468</v>
       </c>
@@ -17165,7 +17165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:11" ht="15.75">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>469</v>
       </c>
@@ -17200,7 +17200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:11" ht="15.75">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>470</v>
       </c>
@@ -17235,7 +17235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:11" ht="15.75">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>471</v>
       </c>
@@ -17270,7 +17270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:11" ht="15.75">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>472</v>
       </c>
@@ -17305,7 +17305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:11" ht="15.75">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>473</v>
       </c>
@@ -17340,7 +17340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:11" ht="15.75">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>474</v>
       </c>
@@ -17375,7 +17375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:11" ht="15.75">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>475</v>
       </c>
@@ -17410,7 +17410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:11" ht="15.75">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>476</v>
       </c>
@@ -17445,7 +17445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:11" ht="15.75">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>477</v>
       </c>
@@ -17480,7 +17480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:11" ht="15.75">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>478</v>
       </c>
@@ -17515,7 +17515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:11" ht="15.75">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>479</v>
       </c>
@@ -17550,7 +17550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:11" ht="15.75">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>480</v>
       </c>
@@ -17585,7 +17585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:11" ht="15.75">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>481</v>
       </c>
@@ -17620,7 +17620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:11" ht="15.75">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>482</v>
       </c>
@@ -17655,7 +17655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:11" ht="15.75">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>483</v>
       </c>
@@ -17690,7 +17690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:11" ht="15.75">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>484</v>
       </c>
@@ -17725,7 +17725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:11" ht="15.75">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>485</v>
       </c>
@@ -17760,7 +17760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:11" ht="15.75">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>486</v>
       </c>
@@ -17795,7 +17795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:11" ht="15.75">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>487</v>
       </c>
@@ -17830,7 +17830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:11" ht="15.75">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>488</v>
       </c>
@@ -17865,7 +17865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:11" ht="15.75">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>489</v>
       </c>
@@ -17900,7 +17900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:11" ht="15.75">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>490</v>
       </c>
@@ -17935,7 +17935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:11" ht="15.75">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>491</v>
       </c>
@@ -17970,7 +17970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:11" ht="15.75">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>492</v>
       </c>
@@ -18005,7 +18005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:11" ht="15.75">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>493</v>
       </c>
@@ -18040,7 +18040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:11" ht="15.75">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>494</v>
       </c>
@@ -18075,7 +18075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:11" ht="15.75">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>495</v>
       </c>
@@ -18110,7 +18110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:11" ht="15.75">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>496</v>
       </c>
@@ -18145,7 +18145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:11" ht="15.75">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>497</v>
       </c>
@@ -18180,7 +18180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:11" ht="15.75">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>498</v>
       </c>
@@ -18215,7 +18215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:11" ht="15.75">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A501" s="1">
         <v>499</v>
       </c>
@@ -18250,7 +18250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:11" ht="15.75">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A502" s="1">
         <v>500</v>
       </c>
@@ -18285,7 +18285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:11" ht="15.75">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A503" s="1">
         <v>501</v>
       </c>
@@ -18320,7 +18320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:11" ht="15.75">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A504" s="1">
         <v>502</v>
       </c>
@@ -18355,7 +18355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:11" ht="15.75">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A505" s="1">
         <v>503</v>
       </c>
@@ -18390,7 +18390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:11" ht="15.75">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A506" s="1">
         <v>504</v>
       </c>
@@ -18425,7 +18425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:11" ht="15.75">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A507" s="1">
         <v>505</v>
       </c>
@@ -18460,7 +18460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:11" ht="15.75">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A508" s="1">
         <v>506</v>
       </c>
@@ -18495,7 +18495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:11" ht="15.75">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A509" s="1">
         <v>507</v>
       </c>
@@ -18530,7 +18530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:11" ht="15.75">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A510" s="1">
         <v>508</v>
       </c>
@@ -18565,7 +18565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:11" ht="15.75">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A511" s="1">
         <v>509</v>
       </c>
@@ -18600,7 +18600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:11" ht="15.75">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A512" s="1">
         <v>510</v>
       </c>
@@ -18635,7 +18635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:11" ht="15.75">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A513" s="1">
         <v>511</v>
       </c>
@@ -18670,7 +18670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:11" ht="15.75">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A514" s="1">
         <v>512</v>
       </c>
@@ -18705,11 +18705,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:11">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.2">
       <c r="J515" s="27"/>
       <c r="K515" s="27"/>
     </row>
-    <row r="516" spans="1:11" ht="15.75">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.2">
       <c r="J516" s="27"/>
       <c r="K516" s="27"/>
     </row>

--- a/Screen_Mapping_10162018.xlsx
+++ b/Screen_Mapping_10162018.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10812"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F48F175-F180-054C-911E-D2F5F5313520}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="39" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A5317E-9E1A-CE43-BE89-2A50E9A0695B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="39" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -406,7 +406,7 @@
     <xf numFmtId="1" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -705,11 +705,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K516"/>
+  <dimension ref="A1:K514"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K514" sqref="A482:K514"/>
+      <selection pane="bottomLeft" activeCell="K514" sqref="K514"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -725,8 +725,7 @@
     <col min="9" max="9" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="19" width="12.1640625" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="12.5" style="1"/>
+    <col min="12" max="16384" width="12.5" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -786,7 +785,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="A3" s="27">
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -821,7 +820,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="A4" s="27">
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -856,7 +855,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="A5" s="27">
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -891,7 +890,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="A6" s="27">
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -926,7 +925,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="A7" s="27">
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -961,7 +960,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="A8" s="27">
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -996,7 +995,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="A9" s="27">
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -1031,7 +1030,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+      <c r="A10" s="27">
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -1066,7 +1065,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+      <c r="A11" s="27">
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -1101,7 +1100,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+      <c r="A12" s="27">
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -1136,7 +1135,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+      <c r="A13" s="27">
         <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -1171,7 +1170,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+      <c r="A14" s="27">
         <v>12</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -1206,7 +1205,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+      <c r="A15" s="27">
         <v>13</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -1241,7 +1240,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+      <c r="A16" s="27">
         <v>14</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -1276,7 +1275,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+      <c r="A17" s="27">
         <v>15</v>
       </c>
       <c r="B17" s="7" t="s">
@@ -1311,7 +1310,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+      <c r="A18" s="27">
         <v>16</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -1346,7 +1345,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
+      <c r="A19" s="27">
         <v>17</v>
       </c>
       <c r="B19" s="11" t="s">
@@ -1381,7 +1380,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
+      <c r="A20" s="27">
         <v>18</v>
       </c>
       <c r="B20" s="11" t="s">
@@ -1416,7 +1415,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+      <c r="A21" s="27">
         <v>19</v>
       </c>
       <c r="B21" s="11" t="s">
@@ -1451,7 +1450,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
+      <c r="A22" s="27">
         <v>20</v>
       </c>
       <c r="B22" s="11" t="s">
@@ -1486,7 +1485,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
+      <c r="A23" s="27">
         <v>21</v>
       </c>
       <c r="B23" s="11" t="s">
@@ -1521,7 +1520,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
+      <c r="A24" s="27">
         <v>22</v>
       </c>
       <c r="B24" s="11" t="s">
@@ -1556,7 +1555,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
+      <c r="A25" s="27">
         <v>23</v>
       </c>
       <c r="B25" s="11" t="s">
@@ -1591,7 +1590,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
+      <c r="A26" s="27">
         <v>24</v>
       </c>
       <c r="B26" s="11" t="s">
@@ -1626,7 +1625,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
+      <c r="A27" s="27">
         <v>25</v>
       </c>
       <c r="B27" s="11" t="s">
@@ -1661,7 +1660,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
+      <c r="A28" s="27">
         <v>26</v>
       </c>
       <c r="B28" s="11" t="s">
@@ -1696,7 +1695,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
+      <c r="A29" s="27">
         <v>27</v>
       </c>
       <c r="B29" s="11" t="s">
@@ -1731,7 +1730,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
+      <c r="A30" s="27">
         <v>28</v>
       </c>
       <c r="B30" s="12" t="s">
@@ -1766,7 +1765,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
+      <c r="A31" s="27">
         <v>29</v>
       </c>
       <c r="B31" s="12" t="s">
@@ -1801,7 +1800,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
+      <c r="A32" s="27">
         <v>30</v>
       </c>
       <c r="B32" s="12" t="s">
@@ -1836,7 +1835,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
+      <c r="A33" s="27">
         <v>31</v>
       </c>
       <c r="B33" s="12" t="s">
@@ -1871,7 +1870,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
+      <c r="A34" s="27">
         <v>32</v>
       </c>
       <c r="B34" s="12" t="s">
@@ -1906,7 +1905,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
+      <c r="A35" s="27">
         <v>33</v>
       </c>
       <c r="B35" s="15" t="s">
@@ -1941,7 +1940,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
+      <c r="A36" s="27">
         <v>34</v>
       </c>
       <c r="B36" s="15" t="s">
@@ -1976,7 +1975,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
+      <c r="A37" s="27">
         <v>35</v>
       </c>
       <c r="B37" s="15" t="s">
@@ -2011,7 +2010,7 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
+      <c r="A38" s="27">
         <v>36</v>
       </c>
       <c r="B38" s="15" t="s">
@@ -2046,7 +2045,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
+      <c r="A39" s="27">
         <v>37</v>
       </c>
       <c r="B39" s="15" t="s">
@@ -2081,7 +2080,7 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
+      <c r="A40" s="27">
         <v>38</v>
       </c>
       <c r="B40" s="15" t="s">
@@ -2116,7 +2115,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
+      <c r="A41" s="27">
         <v>39</v>
       </c>
       <c r="B41" s="8" t="s">
@@ -2151,7 +2150,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
+      <c r="A42" s="27">
         <v>40</v>
       </c>
       <c r="B42" s="8" t="s">
@@ -2186,7 +2185,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
+      <c r="A43" s="27">
         <v>41</v>
       </c>
       <c r="B43" s="8" t="s">
@@ -2221,7 +2220,7 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
+      <c r="A44" s="27">
         <v>42</v>
       </c>
       <c r="B44" s="8" t="s">
@@ -2256,7 +2255,7 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
+      <c r="A45" s="27">
         <v>43</v>
       </c>
       <c r="B45" s="8" t="s">
@@ -2291,7 +2290,7 @@
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
+      <c r="A46" s="27">
         <v>44</v>
       </c>
       <c r="B46" s="8" t="s">
@@ -2326,7 +2325,7 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
+      <c r="A47" s="27">
         <v>45</v>
       </c>
       <c r="B47" s="8" t="s">
@@ -2361,7 +2360,7 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
+      <c r="A48" s="27">
         <v>46</v>
       </c>
       <c r="B48" s="8" t="s">
@@ -2396,7 +2395,7 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
+      <c r="A49" s="27">
         <v>47</v>
       </c>
       <c r="B49" s="8" t="s">
@@ -2431,7 +2430,7 @@
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
+      <c r="A50" s="27">
         <v>48</v>
       </c>
       <c r="B50" s="8" t="s">
@@ -2466,7 +2465,7 @@
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
+      <c r="A51" s="27">
         <v>49</v>
       </c>
       <c r="B51" s="13" t="s">
@@ -2501,7 +2500,7 @@
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
+      <c r="A52" s="27">
         <v>50</v>
       </c>
       <c r="B52" s="13" t="s">
@@ -2536,7 +2535,7 @@
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
+      <c r="A53" s="27">
         <v>51</v>
       </c>
       <c r="B53" s="13" t="s">
@@ -2571,7 +2570,7 @@
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
+      <c r="A54" s="27">
         <v>52</v>
       </c>
       <c r="B54" s="13" t="s">
@@ -2606,7 +2605,7 @@
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
+      <c r="A55" s="27">
         <v>53</v>
       </c>
       <c r="B55" s="13" t="s">
@@ -2641,7 +2640,7 @@
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
+      <c r="A56" s="27">
         <v>54</v>
       </c>
       <c r="B56" s="13" t="s">
@@ -2676,7 +2675,7 @@
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
+      <c r="A57" s="27">
         <v>55</v>
       </c>
       <c r="B57" s="14" t="s">
@@ -2711,7 +2710,7 @@
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
+      <c r="A58" s="27">
         <v>56</v>
       </c>
       <c r="B58" s="14" t="s">
@@ -2746,7 +2745,7 @@
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A59" s="1">
+      <c r="A59" s="27">
         <v>57</v>
       </c>
       <c r="B59" s="14" t="s">
@@ -2781,7 +2780,7 @@
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A60" s="1">
+      <c r="A60" s="27">
         <v>58</v>
       </c>
       <c r="B60" s="14" t="s">
@@ -2816,7 +2815,7 @@
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A61" s="1">
+      <c r="A61" s="27">
         <v>59</v>
       </c>
       <c r="B61" s="14" t="s">
@@ -2851,7 +2850,7 @@
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A62" s="1">
+      <c r="A62" s="27">
         <v>60</v>
       </c>
       <c r="B62" s="14" t="s">
@@ -2886,7 +2885,7 @@
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A63" s="1">
+      <c r="A63" s="27">
         <v>61</v>
       </c>
       <c r="B63" s="14" t="s">
@@ -2921,7 +2920,7 @@
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A64" s="1">
+      <c r="A64" s="27">
         <v>62</v>
       </c>
       <c r="B64" s="14" t="s">
@@ -2956,7 +2955,7 @@
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A65" s="1">
+      <c r="A65" s="27">
         <v>63</v>
       </c>
       <c r="B65" s="14" t="s">
@@ -2991,7 +2990,7 @@
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A66" s="1">
+      <c r="A66" s="27">
         <v>64</v>
       </c>
       <c r="B66" s="14" t="s">
@@ -3026,7 +3025,7 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A67" s="1">
+      <c r="A67" s="27">
         <v>65</v>
       </c>
       <c r="B67" s="4" t="s">
@@ -3061,7 +3060,7 @@
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A68" s="1">
+      <c r="A68" s="27">
         <v>66</v>
       </c>
       <c r="B68" s="4" t="s">
@@ -3096,7 +3095,7 @@
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A69" s="1">
+      <c r="A69" s="27">
         <v>67</v>
       </c>
       <c r="B69" s="4" t="s">
@@ -3131,7 +3130,7 @@
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A70" s="1">
+      <c r="A70" s="27">
         <v>68</v>
       </c>
       <c r="B70" s="4" t="s">
@@ -3166,7 +3165,7 @@
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A71" s="1">
+      <c r="A71" s="27">
         <v>69</v>
       </c>
       <c r="B71" s="4" t="s">
@@ -3201,7 +3200,7 @@
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A72" s="1">
+      <c r="A72" s="27">
         <v>70</v>
       </c>
       <c r="B72" s="4" t="s">
@@ -3236,7 +3235,7 @@
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A73" s="1">
+      <c r="A73" s="27">
         <v>71</v>
       </c>
       <c r="B73" s="4" t="s">
@@ -3271,7 +3270,7 @@
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A74" s="1">
+      <c r="A74" s="27">
         <v>72</v>
       </c>
       <c r="B74" s="4" t="s">
@@ -3306,7 +3305,7 @@
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A75" s="1">
+      <c r="A75" s="27">
         <v>73</v>
       </c>
       <c r="B75" s="4" t="s">
@@ -3341,7 +3340,7 @@
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A76" s="1">
+      <c r="A76" s="27">
         <v>74</v>
       </c>
       <c r="B76" s="4" t="s">
@@ -3376,7 +3375,7 @@
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A77" s="1">
+      <c r="A77" s="27">
         <v>75</v>
       </c>
       <c r="B77" s="4" t="s">
@@ -3411,7 +3410,7 @@
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A78" s="1">
+      <c r="A78" s="27">
         <v>76</v>
       </c>
       <c r="B78" s="4" t="s">
@@ -3446,7 +3445,7 @@
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A79" s="1">
+      <c r="A79" s="27">
         <v>77</v>
       </c>
       <c r="B79" s="4" t="s">
@@ -3481,7 +3480,7 @@
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A80" s="1">
+      <c r="A80" s="27">
         <v>78</v>
       </c>
       <c r="B80" s="4" t="s">
@@ -3516,7 +3515,7 @@
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A81" s="1">
+      <c r="A81" s="27">
         <v>79</v>
       </c>
       <c r="B81" s="4" t="s">
@@ -3551,7 +3550,7 @@
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A82" s="1">
+      <c r="A82" s="27">
         <v>80</v>
       </c>
       <c r="B82" s="4" t="s">
@@ -3586,7 +3585,7 @@
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A83" s="1">
+      <c r="A83" s="27">
         <v>81</v>
       </c>
       <c r="B83" s="7" t="s">
@@ -3621,7 +3620,7 @@
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A84" s="1">
+      <c r="A84" s="27">
         <v>82</v>
       </c>
       <c r="B84" s="7" t="s">
@@ -3656,7 +3655,7 @@
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A85" s="1">
+      <c r="A85" s="27">
         <v>83</v>
       </c>
       <c r="B85" s="7" t="s">
@@ -3691,7 +3690,7 @@
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A86" s="1">
+      <c r="A86" s="27">
         <v>84</v>
       </c>
       <c r="B86" s="7" t="s">
@@ -3726,7 +3725,7 @@
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A87" s="1">
+      <c r="A87" s="27">
         <v>85</v>
       </c>
       <c r="B87" s="7" t="s">
@@ -3761,7 +3760,7 @@
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A88" s="1">
+      <c r="A88" s="27">
         <v>86</v>
       </c>
       <c r="B88" s="7" t="s">
@@ -3796,7 +3795,7 @@
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A89" s="1">
+      <c r="A89" s="27">
         <v>87</v>
       </c>
       <c r="B89" s="7" t="s">
@@ -3831,7 +3830,7 @@
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A90" s="1">
+      <c r="A90" s="27">
         <v>88</v>
       </c>
       <c r="B90" s="7" t="s">
@@ -3866,7 +3865,7 @@
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A91" s="1">
+      <c r="A91" s="27">
         <v>89</v>
       </c>
       <c r="B91" s="7" t="s">
@@ -3901,7 +3900,7 @@
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A92" s="1">
+      <c r="A92" s="27">
         <v>90</v>
       </c>
       <c r="B92" s="7" t="s">
@@ -3936,7 +3935,7 @@
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A93" s="1">
+      <c r="A93" s="27">
         <v>91</v>
       </c>
       <c r="B93" s="7" t="s">
@@ -3971,7 +3970,7 @@
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A94" s="1">
+      <c r="A94" s="27">
         <v>92</v>
       </c>
       <c r="B94" s="7" t="s">
@@ -4006,7 +4005,7 @@
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A95" s="1">
+      <c r="A95" s="27">
         <v>93</v>
       </c>
       <c r="B95" s="7" t="s">
@@ -4041,7 +4040,7 @@
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A96" s="1">
+      <c r="A96" s="27">
         <v>94</v>
       </c>
       <c r="B96" s="7" t="s">
@@ -4076,7 +4075,7 @@
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A97" s="1">
+      <c r="A97" s="27">
         <v>95</v>
       </c>
       <c r="B97" s="7" t="s">
@@ -4111,7 +4110,7 @@
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A98" s="1">
+      <c r="A98" s="27">
         <v>96</v>
       </c>
       <c r="B98" s="7" t="s">
@@ -4146,7 +4145,7 @@
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A99" s="1">
+      <c r="A99" s="27">
         <v>97</v>
       </c>
       <c r="B99" s="8" t="s">
@@ -4181,7 +4180,7 @@
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A100" s="1">
+      <c r="A100" s="27">
         <v>98</v>
       </c>
       <c r="B100" s="8" t="s">
@@ -4216,7 +4215,7 @@
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A101" s="1">
+      <c r="A101" s="27">
         <v>99</v>
       </c>
       <c r="B101" s="8" t="s">
@@ -4251,7 +4250,7 @@
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A102" s="1">
+      <c r="A102" s="27">
         <v>100</v>
       </c>
       <c r="B102" s="8" t="s">
@@ -4286,7 +4285,7 @@
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A103" s="1">
+      <c r="A103" s="27">
         <v>101</v>
       </c>
       <c r="B103" s="8" t="s">
@@ -4321,7 +4320,7 @@
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A104" s="1">
+      <c r="A104" s="27">
         <v>102</v>
       </c>
       <c r="B104" s="8" t="s">
@@ -4356,7 +4355,7 @@
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A105" s="1">
+      <c r="A105" s="27">
         <v>103</v>
       </c>
       <c r="B105" s="8" t="s">
@@ -4391,7 +4390,7 @@
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A106" s="1">
+      <c r="A106" s="27">
         <v>104</v>
       </c>
       <c r="B106" s="8" t="s">
@@ -4426,7 +4425,7 @@
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A107" s="1">
+      <c r="A107" s="27">
         <v>105</v>
       </c>
       <c r="B107" s="8" t="s">
@@ -4461,7 +4460,7 @@
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A108" s="1">
+      <c r="A108" s="27">
         <v>106</v>
       </c>
       <c r="B108" s="8" t="s">
@@ -4496,7 +4495,7 @@
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A109" s="1">
+      <c r="A109" s="27">
         <v>107</v>
       </c>
       <c r="B109" s="8" t="s">
@@ -4531,7 +4530,7 @@
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A110" s="1">
+      <c r="A110" s="27">
         <v>108</v>
       </c>
       <c r="B110" s="8" t="s">
@@ -4566,7 +4565,7 @@
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A111" s="1">
+      <c r="A111" s="27">
         <v>109</v>
       </c>
       <c r="B111" s="8" t="s">
@@ -4601,7 +4600,7 @@
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A112" s="1">
+      <c r="A112" s="27">
         <v>110</v>
       </c>
       <c r="B112" s="8" t="s">
@@ -4636,7 +4635,7 @@
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A113" s="1">
+      <c r="A113" s="27">
         <v>111</v>
       </c>
       <c r="B113" s="8" t="s">
@@ -4671,7 +4670,7 @@
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A114" s="1">
+      <c r="A114" s="27">
         <v>112</v>
       </c>
       <c r="B114" s="8" t="s">
@@ -4706,7 +4705,7 @@
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A115" s="1">
+      <c r="A115" s="27">
         <v>113</v>
       </c>
       <c r="B115" s="12" t="s">
@@ -4741,7 +4740,7 @@
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A116" s="1">
+      <c r="A116" s="27">
         <v>114</v>
       </c>
       <c r="B116" s="12" t="s">
@@ -4776,7 +4775,7 @@
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A117" s="1">
+      <c r="A117" s="27">
         <v>115</v>
       </c>
       <c r="B117" s="12" t="s">
@@ -4811,7 +4810,7 @@
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A118" s="1">
+      <c r="A118" s="27">
         <v>116</v>
       </c>
       <c r="B118" s="12" t="s">
@@ -4846,7 +4845,7 @@
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A119" s="1">
+      <c r="A119" s="27">
         <v>117</v>
       </c>
       <c r="B119" s="12" t="s">
@@ -4881,7 +4880,7 @@
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A120" s="1">
+      <c r="A120" s="27">
         <v>118</v>
       </c>
       <c r="B120" s="12" t="s">
@@ -4916,7 +4915,7 @@
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A121" s="1">
+      <c r="A121" s="27">
         <v>119</v>
       </c>
       <c r="B121" s="12" t="s">
@@ -4951,7 +4950,7 @@
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A122" s="1">
+      <c r="A122" s="27">
         <v>120</v>
       </c>
       <c r="B122" s="12" t="s">
@@ -4986,7 +4985,7 @@
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A123" s="1">
+      <c r="A123" s="27">
         <v>121</v>
       </c>
       <c r="B123" s="12" t="s">
@@ -5021,7 +5020,7 @@
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A124" s="1">
+      <c r="A124" s="27">
         <v>122</v>
       </c>
       <c r="B124" s="12" t="s">
@@ -5056,7 +5055,7 @@
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A125" s="1">
+      <c r="A125" s="27">
         <v>123</v>
       </c>
       <c r="B125" s="12" t="s">
@@ -5091,7 +5090,7 @@
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A126" s="1">
+      <c r="A126" s="27">
         <v>124</v>
       </c>
       <c r="B126" s="12" t="s">
@@ -5126,7 +5125,7 @@
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A127" s="1">
+      <c r="A127" s="27">
         <v>125</v>
       </c>
       <c r="B127" s="12" t="s">
@@ -5161,7 +5160,7 @@
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A128" s="1">
+      <c r="A128" s="27">
         <v>126</v>
       </c>
       <c r="B128" s="12" t="s">
@@ -5196,7 +5195,7 @@
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A129" s="1">
+      <c r="A129" s="27">
         <v>127</v>
       </c>
       <c r="B129" s="12" t="s">
@@ -5231,7 +5230,7 @@
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A130" s="1">
+      <c r="A130" s="27">
         <v>128</v>
       </c>
       <c r="B130" s="12" t="s">
@@ -5266,7 +5265,7 @@
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A131" s="1">
+      <c r="A131" s="27">
         <v>129</v>
       </c>
       <c r="B131" s="6" t="s">
@@ -5301,7 +5300,7 @@
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A132" s="1">
+      <c r="A132" s="27">
         <v>130</v>
       </c>
       <c r="B132" s="6" t="s">
@@ -5336,7 +5335,7 @@
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A133" s="1">
+      <c r="A133" s="27">
         <v>131</v>
       </c>
       <c r="B133" s="6" t="s">
@@ -5371,7 +5370,7 @@
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A134" s="1">
+      <c r="A134" s="27">
         <v>132</v>
       </c>
       <c r="B134" s="6" t="s">
@@ -5406,7 +5405,7 @@
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A135" s="1">
+      <c r="A135" s="27">
         <v>133</v>
       </c>
       <c r="B135" s="6" t="s">
@@ -5441,7 +5440,7 @@
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A136" s="1">
+      <c r="A136" s="27">
         <v>134</v>
       </c>
       <c r="B136" s="6" t="s">
@@ -5476,7 +5475,7 @@
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A137" s="1">
+      <c r="A137" s="27">
         <v>135</v>
       </c>
       <c r="B137" s="6" t="s">
@@ -5511,7 +5510,7 @@
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A138" s="1">
+      <c r="A138" s="27">
         <v>136</v>
       </c>
       <c r="B138" s="6" t="s">
@@ -5546,7 +5545,7 @@
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A139" s="1">
+      <c r="A139" s="27">
         <v>137</v>
       </c>
       <c r="B139" s="6" t="s">
@@ -5581,7 +5580,7 @@
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A140" s="1">
+      <c r="A140" s="27">
         <v>138</v>
       </c>
       <c r="B140" s="6" t="s">
@@ -5616,7 +5615,7 @@
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A141" s="1">
+      <c r="A141" s="27">
         <v>139</v>
       </c>
       <c r="B141" s="6" t="s">
@@ -5651,7 +5650,7 @@
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A142" s="1">
+      <c r="A142" s="27">
         <v>140</v>
       </c>
       <c r="B142" s="7" t="s">
@@ -5686,7 +5685,7 @@
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A143" s="1">
+      <c r="A143" s="27">
         <v>141</v>
       </c>
       <c r="B143" s="7" t="s">
@@ -5721,7 +5720,7 @@
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A144" s="1">
+      <c r="A144" s="27">
         <v>142</v>
       </c>
       <c r="B144" s="7" t="s">
@@ -5756,7 +5755,7 @@
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A145" s="1">
+      <c r="A145" s="27">
         <v>143</v>
       </c>
       <c r="B145" s="7" t="s">
@@ -5791,7 +5790,7 @@
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A146" s="1">
+      <c r="A146" s="27">
         <v>144</v>
       </c>
       <c r="B146" s="7" t="s">
@@ -5826,7 +5825,7 @@
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A147" s="1">
+      <c r="A147" s="27">
         <v>145</v>
       </c>
       <c r="B147" s="11" t="s">
@@ -5861,7 +5860,7 @@
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A148" s="1">
+      <c r="A148" s="27">
         <v>146</v>
       </c>
       <c r="B148" s="11" t="s">
@@ -5896,7 +5895,7 @@
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A149" s="1">
+      <c r="A149" s="27">
         <v>147</v>
       </c>
       <c r="B149" s="11" t="s">
@@ -5931,7 +5930,7 @@
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A150" s="1">
+      <c r="A150" s="27">
         <v>148</v>
       </c>
       <c r="B150" s="11" t="s">
@@ -5966,7 +5965,7 @@
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A151" s="1">
+      <c r="A151" s="27">
         <v>149</v>
       </c>
       <c r="B151" s="11" t="s">
@@ -6001,7 +6000,7 @@
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A152" s="1">
+      <c r="A152" s="27">
         <v>150</v>
       </c>
       <c r="B152" s="11" t="s">
@@ -6036,7 +6035,7 @@
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A153" s="1">
+      <c r="A153" s="27">
         <v>151</v>
       </c>
       <c r="B153" s="11" t="s">
@@ -6071,7 +6070,7 @@
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A154" s="1">
+      <c r="A154" s="27">
         <v>152</v>
       </c>
       <c r="B154" s="11" t="s">
@@ -6106,7 +6105,7 @@
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A155" s="1">
+      <c r="A155" s="27">
         <v>153</v>
       </c>
       <c r="B155" s="11" t="s">
@@ -6141,7 +6140,7 @@
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A156" s="1">
+      <c r="A156" s="27">
         <v>154</v>
       </c>
       <c r="B156" s="11" t="s">
@@ -6176,7 +6175,7 @@
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A157" s="1">
+      <c r="A157" s="27">
         <v>155</v>
       </c>
       <c r="B157" s="11" t="s">
@@ -6211,7 +6210,7 @@
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A158" s="1">
+      <c r="A158" s="27">
         <v>156</v>
       </c>
       <c r="B158" s="12" t="s">
@@ -6246,7 +6245,7 @@
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A159" s="1">
+      <c r="A159" s="27">
         <v>157</v>
       </c>
       <c r="B159" s="12" t="s">
@@ -6281,7 +6280,7 @@
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A160" s="1">
+      <c r="A160" s="27">
         <v>158</v>
       </c>
       <c r="B160" s="12" t="s">
@@ -6316,7 +6315,7 @@
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A161" s="1">
+      <c r="A161" s="27">
         <v>159</v>
       </c>
       <c r="B161" s="12" t="s">
@@ -6351,7 +6350,7 @@
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A162" s="1">
+      <c r="A162" s="27">
         <v>160</v>
       </c>
       <c r="B162" s="12" t="s">
@@ -6386,7 +6385,7 @@
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A163" s="1">
+      <c r="A163" s="27">
         <v>161</v>
       </c>
       <c r="B163" s="15" t="s">
@@ -6421,7 +6420,7 @@
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A164" s="1">
+      <c r="A164" s="27">
         <v>162</v>
       </c>
       <c r="B164" s="15" t="s">
@@ -6456,7 +6455,7 @@
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A165" s="1">
+      <c r="A165" s="27">
         <v>163</v>
       </c>
       <c r="B165" s="15" t="s">
@@ -6491,7 +6490,7 @@
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A166" s="1">
+      <c r="A166" s="27">
         <v>164</v>
       </c>
       <c r="B166" s="15" t="s">
@@ -6526,7 +6525,7 @@
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A167" s="1">
+      <c r="A167" s="27">
         <v>165</v>
       </c>
       <c r="B167" s="15" t="s">
@@ -6561,7 +6560,7 @@
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A168" s="1">
+      <c r="A168" s="27">
         <v>166</v>
       </c>
       <c r="B168" s="15" t="s">
@@ -6596,7 +6595,7 @@
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A169" s="1">
+      <c r="A169" s="27">
         <v>167</v>
       </c>
       <c r="B169" s="8" t="s">
@@ -6631,7 +6630,7 @@
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A170" s="1">
+      <c r="A170" s="27">
         <v>168</v>
       </c>
       <c r="B170" s="8" t="s">
@@ -6666,7 +6665,7 @@
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A171" s="1">
+      <c r="A171" s="27">
         <v>169</v>
       </c>
       <c r="B171" s="8" t="s">
@@ -6701,7 +6700,7 @@
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A172" s="1">
+      <c r="A172" s="27">
         <v>170</v>
       </c>
       <c r="B172" s="8" t="s">
@@ -6736,7 +6735,7 @@
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A173" s="1">
+      <c r="A173" s="27">
         <v>171</v>
       </c>
       <c r="B173" s="8" t="s">
@@ -6771,7 +6770,7 @@
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A174" s="1">
+      <c r="A174" s="27">
         <v>172</v>
       </c>
       <c r="B174" s="8" t="s">
@@ -6806,7 +6805,7 @@
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A175" s="1">
+      <c r="A175" s="27">
         <v>173</v>
       </c>
       <c r="B175" s="8" t="s">
@@ -6841,7 +6840,7 @@
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A176" s="1">
+      <c r="A176" s="27">
         <v>174</v>
       </c>
       <c r="B176" s="8" t="s">
@@ -6876,7 +6875,7 @@
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A177" s="1">
+      <c r="A177" s="27">
         <v>175</v>
       </c>
       <c r="B177" s="8" t="s">
@@ -6911,7 +6910,7 @@
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A178" s="1">
+      <c r="A178" s="27">
         <v>176</v>
       </c>
       <c r="B178" s="8" t="s">
@@ -6946,7 +6945,7 @@
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A179" s="1">
+      <c r="A179" s="27">
         <v>177</v>
       </c>
       <c r="B179" s="13" t="s">
@@ -6981,7 +6980,7 @@
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A180" s="1">
+      <c r="A180" s="27">
         <v>178</v>
       </c>
       <c r="B180" s="13" t="s">
@@ -7016,7 +7015,7 @@
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A181" s="1">
+      <c r="A181" s="27">
         <v>179</v>
       </c>
       <c r="B181" s="13" t="s">
@@ -7051,7 +7050,7 @@
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A182" s="1">
+      <c r="A182" s="27">
         <v>180</v>
       </c>
       <c r="B182" s="13" t="s">
@@ -7086,7 +7085,7 @@
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A183" s="1">
+      <c r="A183" s="27">
         <v>181</v>
       </c>
       <c r="B183" s="13" t="s">
@@ -7121,7 +7120,7 @@
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A184" s="1">
+      <c r="A184" s="27">
         <v>182</v>
       </c>
       <c r="B184" s="13" t="s">
@@ -7156,7 +7155,7 @@
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A185" s="1">
+      <c r="A185" s="27">
         <v>183</v>
       </c>
       <c r="B185" s="14" t="s">
@@ -7191,7 +7190,7 @@
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A186" s="1">
+      <c r="A186" s="27">
         <v>184</v>
       </c>
       <c r="B186" s="14" t="s">
@@ -7226,7 +7225,7 @@
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A187" s="1">
+      <c r="A187" s="27">
         <v>185</v>
       </c>
       <c r="B187" s="14" t="s">
@@ -7261,7 +7260,7 @@
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A188" s="1">
+      <c r="A188" s="27">
         <v>186</v>
       </c>
       <c r="B188" s="14" t="s">
@@ -7296,7 +7295,7 @@
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A189" s="1">
+      <c r="A189" s="27">
         <v>187</v>
       </c>
       <c r="B189" s="14" t="s">
@@ -7331,7 +7330,7 @@
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A190" s="1">
+      <c r="A190" s="27">
         <v>188</v>
       </c>
       <c r="B190" s="14" t="s">
@@ -7366,7 +7365,7 @@
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A191" s="1">
+      <c r="A191" s="27">
         <v>189</v>
       </c>
       <c r="B191" s="14" t="s">
@@ -7401,7 +7400,7 @@
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A192" s="1">
+      <c r="A192" s="27">
         <v>190</v>
       </c>
       <c r="B192" s="14" t="s">
@@ -7436,7 +7435,7 @@
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A193" s="1">
+      <c r="A193" s="27">
         <v>191</v>
       </c>
       <c r="B193" s="14" t="s">
@@ -7471,7 +7470,7 @@
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A194" s="1">
+      <c r="A194" s="27">
         <v>192</v>
       </c>
       <c r="B194" s="14" t="s">
@@ -7506,7 +7505,7 @@
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A195" s="1">
+      <c r="A195" s="27">
         <v>193</v>
       </c>
       <c r="B195" s="4" t="s">
@@ -7541,7 +7540,7 @@
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A196" s="1">
+      <c r="A196" s="27">
         <v>194</v>
       </c>
       <c r="B196" s="4" t="s">
@@ -7576,7 +7575,7 @@
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A197" s="1">
+      <c r="A197" s="27">
         <v>195</v>
       </c>
       <c r="B197" s="4" t="s">
@@ -7611,7 +7610,7 @@
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A198" s="1">
+      <c r="A198" s="27">
         <v>196</v>
       </c>
       <c r="B198" s="4" t="s">
@@ -7646,7 +7645,7 @@
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A199" s="1">
+      <c r="A199" s="27">
         <v>197</v>
       </c>
       <c r="B199" s="4" t="s">
@@ -7681,7 +7680,7 @@
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A200" s="1">
+      <c r="A200" s="27">
         <v>198</v>
       </c>
       <c r="B200" s="4" t="s">
@@ -7716,7 +7715,7 @@
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A201" s="1">
+      <c r="A201" s="27">
         <v>199</v>
       </c>
       <c r="B201" s="4" t="s">
@@ -7751,7 +7750,7 @@
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A202" s="1">
+      <c r="A202" s="27">
         <v>200</v>
       </c>
       <c r="B202" s="4" t="s">
@@ -7786,7 +7785,7 @@
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A203" s="1">
+      <c r="A203" s="27">
         <v>201</v>
       </c>
       <c r="B203" s="4" t="s">
@@ -7821,7 +7820,7 @@
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A204" s="1">
+      <c r="A204" s="27">
         <v>202</v>
       </c>
       <c r="B204" s="4" t="s">
@@ -7856,7 +7855,7 @@
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A205" s="1">
+      <c r="A205" s="27">
         <v>203</v>
       </c>
       <c r="B205" s="4" t="s">
@@ -7891,7 +7890,7 @@
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A206" s="1">
+      <c r="A206" s="27">
         <v>204</v>
       </c>
       <c r="B206" s="4" t="s">
@@ -7926,7 +7925,7 @@
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A207" s="1">
+      <c r="A207" s="27">
         <v>205</v>
       </c>
       <c r="B207" s="4" t="s">
@@ -7961,7 +7960,7 @@
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A208" s="1">
+      <c r="A208" s="27">
         <v>206</v>
       </c>
       <c r="B208" s="4" t="s">
@@ -7996,7 +7995,7 @@
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A209" s="1">
+      <c r="A209" s="27">
         <v>207</v>
       </c>
       <c r="B209" s="4" t="s">
@@ -8031,7 +8030,7 @@
       </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A210" s="1">
+      <c r="A210" s="27">
         <v>208</v>
       </c>
       <c r="B210" s="4" t="s">
@@ -8066,7 +8065,7 @@
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A211" s="1">
+      <c r="A211" s="27">
         <v>209</v>
       </c>
       <c r="B211" s="7" t="s">
@@ -8101,7 +8100,7 @@
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A212" s="1">
+      <c r="A212" s="27">
         <v>210</v>
       </c>
       <c r="B212" s="7" t="s">
@@ -8136,7 +8135,7 @@
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A213" s="1">
+      <c r="A213" s="27">
         <v>211</v>
       </c>
       <c r="B213" s="7" t="s">
@@ -8171,7 +8170,7 @@
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A214" s="1">
+      <c r="A214" s="27">
         <v>212</v>
       </c>
       <c r="B214" s="7" t="s">
@@ -8206,7 +8205,7 @@
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A215" s="1">
+      <c r="A215" s="27">
         <v>213</v>
       </c>
       <c r="B215" s="7" t="s">
@@ -8241,7 +8240,7 @@
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A216" s="1">
+      <c r="A216" s="27">
         <v>214</v>
       </c>
       <c r="B216" s="7" t="s">
@@ -8276,7 +8275,7 @@
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A217" s="1">
+      <c r="A217" s="27">
         <v>215</v>
       </c>
       <c r="B217" s="7" t="s">
@@ -8311,7 +8310,7 @@
       </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A218" s="1">
+      <c r="A218" s="27">
         <v>216</v>
       </c>
       <c r="B218" s="7" t="s">
@@ -8346,7 +8345,7 @@
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A219" s="1">
+      <c r="A219" s="27">
         <v>217</v>
       </c>
       <c r="B219" s="7" t="s">
@@ -8381,7 +8380,7 @@
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A220" s="1">
+      <c r="A220" s="27">
         <v>218</v>
       </c>
       <c r="B220" s="7" t="s">
@@ -8416,7 +8415,7 @@
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A221" s="1">
+      <c r="A221" s="27">
         <v>219</v>
       </c>
       <c r="B221" s="7" t="s">
@@ -8451,7 +8450,7 @@
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A222" s="1">
+      <c r="A222" s="27">
         <v>220</v>
       </c>
       <c r="B222" s="7" t="s">
@@ -8486,7 +8485,7 @@
       </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A223" s="1">
+      <c r="A223" s="27">
         <v>221</v>
       </c>
       <c r="B223" s="7" t="s">
@@ -8521,7 +8520,7 @@
       </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A224" s="1">
+      <c r="A224" s="27">
         <v>222</v>
       </c>
       <c r="B224" s="7" t="s">
@@ -8556,7 +8555,7 @@
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A225" s="1">
+      <c r="A225" s="27">
         <v>223</v>
       </c>
       <c r="B225" s="7" t="s">
@@ -8591,7 +8590,7 @@
       </c>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A226" s="1">
+      <c r="A226" s="27">
         <v>224</v>
       </c>
       <c r="B226" s="7" t="s">
@@ -8626,7 +8625,7 @@
       </c>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A227" s="1">
+      <c r="A227" s="27">
         <v>225</v>
       </c>
       <c r="B227" s="8" t="s">
@@ -8661,7 +8660,7 @@
       </c>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A228" s="1">
+      <c r="A228" s="27">
         <v>226</v>
       </c>
       <c r="B228" s="8" t="s">
@@ -8696,7 +8695,7 @@
       </c>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A229" s="1">
+      <c r="A229" s="27">
         <v>227</v>
       </c>
       <c r="B229" s="8" t="s">
@@ -8731,7 +8730,7 @@
       </c>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A230" s="1">
+      <c r="A230" s="27">
         <v>228</v>
       </c>
       <c r="B230" s="8" t="s">
@@ -8766,7 +8765,7 @@
       </c>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A231" s="1">
+      <c r="A231" s="27">
         <v>229</v>
       </c>
       <c r="B231" s="8" t="s">
@@ -8801,7 +8800,7 @@
       </c>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A232" s="1">
+      <c r="A232" s="27">
         <v>230</v>
       </c>
       <c r="B232" s="8" t="s">
@@ -8836,7 +8835,7 @@
       </c>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A233" s="1">
+      <c r="A233" s="27">
         <v>231</v>
       </c>
       <c r="B233" s="8" t="s">
@@ -8871,7 +8870,7 @@
       </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A234" s="1">
+      <c r="A234" s="27">
         <v>232</v>
       </c>
       <c r="B234" s="8" t="s">
@@ -8906,7 +8905,7 @@
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A235" s="1">
+      <c r="A235" s="27">
         <v>233</v>
       </c>
       <c r="B235" s="8" t="s">
@@ -8941,7 +8940,7 @@
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A236" s="1">
+      <c r="A236" s="27">
         <v>234</v>
       </c>
       <c r="B236" s="8" t="s">
@@ -8976,7 +8975,7 @@
       </c>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A237" s="1">
+      <c r="A237" s="27">
         <v>235</v>
       </c>
       <c r="B237" s="8" t="s">
@@ -9011,7 +9010,7 @@
       </c>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A238" s="1">
+      <c r="A238" s="27">
         <v>236</v>
       </c>
       <c r="B238" s="8" t="s">
@@ -9046,7 +9045,7 @@
       </c>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A239" s="1">
+      <c r="A239" s="27">
         <v>237</v>
       </c>
       <c r="B239" s="8" t="s">
@@ -9081,7 +9080,7 @@
       </c>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A240" s="1">
+      <c r="A240" s="27">
         <v>238</v>
       </c>
       <c r="B240" s="8" t="s">
@@ -9116,7 +9115,7 @@
       </c>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A241" s="1">
+      <c r="A241" s="27">
         <v>239</v>
       </c>
       <c r="B241" s="8" t="s">
@@ -9151,7 +9150,7 @@
       </c>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A242" s="1">
+      <c r="A242" s="27">
         <v>240</v>
       </c>
       <c r="B242" s="8" t="s">
@@ -9186,7 +9185,7 @@
       </c>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A243" s="1">
+      <c r="A243" s="27">
         <v>241</v>
       </c>
       <c r="B243" s="12" t="s">
@@ -9221,7 +9220,7 @@
       </c>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A244" s="1">
+      <c r="A244" s="27">
         <v>242</v>
       </c>
       <c r="B244" s="12" t="s">
@@ -9256,7 +9255,7 @@
       </c>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A245" s="1">
+      <c r="A245" s="27">
         <v>243</v>
       </c>
       <c r="B245" s="12" t="s">
@@ -9291,7 +9290,7 @@
       </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A246" s="1">
+      <c r="A246" s="27">
         <v>244</v>
       </c>
       <c r="B246" s="12" t="s">
@@ -9326,7 +9325,7 @@
       </c>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A247" s="1">
+      <c r="A247" s="27">
         <v>245</v>
       </c>
       <c r="B247" s="12" t="s">
@@ -9361,7 +9360,7 @@
       </c>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A248" s="1">
+      <c r="A248" s="27">
         <v>246</v>
       </c>
       <c r="B248" s="12" t="s">
@@ -9396,7 +9395,7 @@
       </c>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A249" s="1">
+      <c r="A249" s="27">
         <v>247</v>
       </c>
       <c r="B249" s="12" t="s">
@@ -9431,7 +9430,7 @@
       </c>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A250" s="1">
+      <c r="A250" s="27">
         <v>248</v>
       </c>
       <c r="B250" s="12" t="s">
@@ -9466,7 +9465,7 @@
       </c>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A251" s="1">
+      <c r="A251" s="27">
         <v>249</v>
       </c>
       <c r="B251" s="12" t="s">
@@ -9501,7 +9500,7 @@
       </c>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A252" s="1">
+      <c r="A252" s="27">
         <v>250</v>
       </c>
       <c r="B252" s="12" t="s">
@@ -9536,7 +9535,7 @@
       </c>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A253" s="1">
+      <c r="A253" s="27">
         <v>251</v>
       </c>
       <c r="B253" s="12" t="s">
@@ -9571,7 +9570,7 @@
       </c>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A254" s="1">
+      <c r="A254" s="27">
         <v>252</v>
       </c>
       <c r="B254" s="12" t="s">
@@ -9606,7 +9605,7 @@
       </c>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A255" s="1">
+      <c r="A255" s="27">
         <v>253</v>
       </c>
       <c r="B255" s="12" t="s">
@@ -9641,7 +9640,7 @@
       </c>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A256" s="1">
+      <c r="A256" s="27">
         <v>254</v>
       </c>
       <c r="B256" s="12" t="s">
@@ -9676,7 +9675,7 @@
       </c>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A257" s="1">
+      <c r="A257" s="27">
         <v>255</v>
       </c>
       <c r="B257" s="12" t="s">
@@ -9711,7 +9710,7 @@
       </c>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A258" s="1">
+      <c r="A258" s="27">
         <v>256</v>
       </c>
       <c r="B258" s="12" t="s">
@@ -9746,7 +9745,7 @@
       </c>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A259" s="1">
+      <c r="A259" s="27">
         <v>257</v>
       </c>
       <c r="B259" s="6" t="s">
@@ -9781,7 +9780,7 @@
       </c>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A260" s="1">
+      <c r="A260" s="27">
         <v>258</v>
       </c>
       <c r="B260" s="6" t="s">
@@ -9816,7 +9815,7 @@
       </c>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A261" s="1">
+      <c r="A261" s="27">
         <v>259</v>
       </c>
       <c r="B261" s="6" t="s">
@@ -9851,7 +9850,7 @@
       </c>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A262" s="1">
+      <c r="A262" s="27">
         <v>260</v>
       </c>
       <c r="B262" s="6" t="s">
@@ -9886,7 +9885,7 @@
       </c>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A263" s="1">
+      <c r="A263" s="27">
         <v>261</v>
       </c>
       <c r="B263" s="6" t="s">
@@ -9921,7 +9920,7 @@
       </c>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A264" s="1">
+      <c r="A264" s="27">
         <v>262</v>
       </c>
       <c r="B264" s="6" t="s">
@@ -9956,7 +9955,7 @@
       </c>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A265" s="1">
+      <c r="A265" s="27">
         <v>263</v>
       </c>
       <c r="B265" s="6" t="s">
@@ -9991,7 +9990,7 @@
       </c>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A266" s="1">
+      <c r="A266" s="27">
         <v>264</v>
       </c>
       <c r="B266" s="6" t="s">
@@ -10026,7 +10025,7 @@
       </c>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A267" s="1">
+      <c r="A267" s="27">
         <v>265</v>
       </c>
       <c r="B267" s="6" t="s">
@@ -10061,7 +10060,7 @@
       </c>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A268" s="1">
+      <c r="A268" s="27">
         <v>266</v>
       </c>
       <c r="B268" s="6" t="s">
@@ -10096,7 +10095,7 @@
       </c>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A269" s="1">
+      <c r="A269" s="27">
         <v>267</v>
       </c>
       <c r="B269" s="6" t="s">
@@ -10131,7 +10130,7 @@
       </c>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A270" s="1">
+      <c r="A270" s="27">
         <v>268</v>
       </c>
       <c r="B270" s="7" t="s">
@@ -10166,7 +10165,7 @@
       </c>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A271" s="1">
+      <c r="A271" s="27">
         <v>269</v>
       </c>
       <c r="B271" s="7" t="s">
@@ -10201,7 +10200,7 @@
       </c>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A272" s="1">
+      <c r="A272" s="27">
         <v>270</v>
       </c>
       <c r="B272" s="7" t="s">
@@ -10236,7 +10235,7 @@
       </c>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A273" s="1">
+      <c r="A273" s="27">
         <v>271</v>
       </c>
       <c r="B273" s="7" t="s">
@@ -10271,7 +10270,7 @@
       </c>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A274" s="1">
+      <c r="A274" s="27">
         <v>272</v>
       </c>
       <c r="B274" s="7" t="s">
@@ -10306,7 +10305,7 @@
       </c>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A275" s="1">
+      <c r="A275" s="27">
         <v>273</v>
       </c>
       <c r="B275" s="11" t="s">
@@ -10341,7 +10340,7 @@
       </c>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A276" s="1">
+      <c r="A276" s="27">
         <v>274</v>
       </c>
       <c r="B276" s="11" t="s">
@@ -10376,7 +10375,7 @@
       </c>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A277" s="1">
+      <c r="A277" s="27">
         <v>275</v>
       </c>
       <c r="B277" s="11" t="s">
@@ -10411,7 +10410,7 @@
       </c>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A278" s="1">
+      <c r="A278" s="27">
         <v>276</v>
       </c>
       <c r="B278" s="11" t="s">
@@ -10446,7 +10445,7 @@
       </c>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A279" s="1">
+      <c r="A279" s="27">
         <v>277</v>
       </c>
       <c r="B279" s="11" t="s">
@@ -10481,7 +10480,7 @@
       </c>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A280" s="1">
+      <c r="A280" s="27">
         <v>278</v>
       </c>
       <c r="B280" s="11" t="s">
@@ -10516,7 +10515,7 @@
       </c>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A281" s="1">
+      <c r="A281" s="27">
         <v>279</v>
       </c>
       <c r="B281" s="11" t="s">
@@ -10551,7 +10550,7 @@
       </c>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A282" s="1">
+      <c r="A282" s="27">
         <v>280</v>
       </c>
       <c r="B282" s="11" t="s">
@@ -10586,7 +10585,7 @@
       </c>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A283" s="1">
+      <c r="A283" s="27">
         <v>281</v>
       </c>
       <c r="B283" s="11" t="s">
@@ -10621,7 +10620,7 @@
       </c>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A284" s="1">
+      <c r="A284" s="27">
         <v>282</v>
       </c>
       <c r="B284" s="11" t="s">
@@ -10656,7 +10655,7 @@
       </c>
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A285" s="1">
+      <c r="A285" s="27">
         <v>283</v>
       </c>
       <c r="B285" s="11" t="s">
@@ -10691,7 +10690,7 @@
       </c>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A286" s="1">
+      <c r="A286" s="27">
         <v>284</v>
       </c>
       <c r="B286" s="12" t="s">
@@ -10726,7 +10725,7 @@
       </c>
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A287" s="1">
+      <c r="A287" s="27">
         <v>285</v>
       </c>
       <c r="B287" s="12" t="s">
@@ -10761,7 +10760,7 @@
       </c>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A288" s="1">
+      <c r="A288" s="27">
         <v>286</v>
       </c>
       <c r="B288" s="12" t="s">
@@ -10796,7 +10795,7 @@
       </c>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A289" s="1">
+      <c r="A289" s="27">
         <v>287</v>
       </c>
       <c r="B289" s="12" t="s">
@@ -10831,7 +10830,7 @@
       </c>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A290" s="1">
+      <c r="A290" s="27">
         <v>288</v>
       </c>
       <c r="B290" s="12" t="s">
@@ -10866,7 +10865,7 @@
       </c>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A291" s="1">
+      <c r="A291" s="27">
         <v>289</v>
       </c>
       <c r="B291" s="15" t="s">
@@ -10901,7 +10900,7 @@
       </c>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A292" s="1">
+      <c r="A292" s="27">
         <v>290</v>
       </c>
       <c r="B292" s="15" t="s">
@@ -10936,7 +10935,7 @@
       </c>
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A293" s="1">
+      <c r="A293" s="27">
         <v>291</v>
       </c>
       <c r="B293" s="15" t="s">
@@ -10971,7 +10970,7 @@
       </c>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A294" s="1">
+      <c r="A294" s="27">
         <v>292</v>
       </c>
       <c r="B294" s="15" t="s">
@@ -11006,7 +11005,7 @@
       </c>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A295" s="1">
+      <c r="A295" s="27">
         <v>293</v>
       </c>
       <c r="B295" s="15" t="s">
@@ -11041,7 +11040,7 @@
       </c>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A296" s="1">
+      <c r="A296" s="27">
         <v>294</v>
       </c>
       <c r="B296" s="15" t="s">
@@ -11076,7 +11075,7 @@
       </c>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A297" s="1">
+      <c r="A297" s="27">
         <v>295</v>
       </c>
       <c r="B297" s="8" t="s">
@@ -11111,7 +11110,7 @@
       </c>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A298" s="1">
+      <c r="A298" s="27">
         <v>296</v>
       </c>
       <c r="B298" s="8" t="s">
@@ -11146,7 +11145,7 @@
       </c>
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A299" s="1">
+      <c r="A299" s="27">
         <v>297</v>
       </c>
       <c r="B299" s="8" t="s">
@@ -11181,7 +11180,7 @@
       </c>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A300" s="1">
+      <c r="A300" s="27">
         <v>298</v>
       </c>
       <c r="B300" s="8" t="s">
@@ -11216,7 +11215,7 @@
       </c>
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A301" s="1">
+      <c r="A301" s="27">
         <v>299</v>
       </c>
       <c r="B301" s="8" t="s">
@@ -11251,7 +11250,7 @@
       </c>
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A302" s="1">
+      <c r="A302" s="27">
         <v>300</v>
       </c>
       <c r="B302" s="8" t="s">
@@ -11286,7 +11285,7 @@
       </c>
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A303" s="1">
+      <c r="A303" s="27">
         <v>301</v>
       </c>
       <c r="B303" s="8" t="s">
@@ -11321,7 +11320,7 @@
       </c>
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A304" s="1">
+      <c r="A304" s="27">
         <v>302</v>
       </c>
       <c r="B304" s="8" t="s">
@@ -11356,7 +11355,7 @@
       </c>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A305" s="1">
+      <c r="A305" s="27">
         <v>303</v>
       </c>
       <c r="B305" s="8" t="s">
@@ -11391,7 +11390,7 @@
       </c>
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A306" s="1">
+      <c r="A306" s="27">
         <v>304</v>
       </c>
       <c r="B306" s="8" t="s">
@@ -11426,7 +11425,7 @@
       </c>
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A307" s="1">
+      <c r="A307" s="27">
         <v>305</v>
       </c>
       <c r="B307" s="13" t="s">
@@ -11461,7 +11460,7 @@
       </c>
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A308" s="1">
+      <c r="A308" s="27">
         <v>306</v>
       </c>
       <c r="B308" s="13" t="s">
@@ -11496,7 +11495,7 @@
       </c>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A309" s="1">
+      <c r="A309" s="27">
         <v>307</v>
       </c>
       <c r="B309" s="13" t="s">
@@ -11531,7 +11530,7 @@
       </c>
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A310" s="1">
+      <c r="A310" s="27">
         <v>308</v>
       </c>
       <c r="B310" s="13" t="s">
@@ -11566,7 +11565,7 @@
       </c>
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A311" s="1">
+      <c r="A311" s="27">
         <v>309</v>
       </c>
       <c r="B311" s="13" t="s">
@@ -11601,7 +11600,7 @@
       </c>
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A312" s="1">
+      <c r="A312" s="27">
         <v>310</v>
       </c>
       <c r="B312" s="13" t="s">
@@ -11636,7 +11635,7 @@
       </c>
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A313" s="1">
+      <c r="A313" s="27">
         <v>311</v>
       </c>
       <c r="B313" s="14" t="s">
@@ -11671,7 +11670,7 @@
       </c>
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A314" s="1">
+      <c r="A314" s="27">
         <v>312</v>
       </c>
       <c r="B314" s="14" t="s">
@@ -11706,7 +11705,7 @@
       </c>
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A315" s="1">
+      <c r="A315" s="27">
         <v>313</v>
       </c>
       <c r="B315" s="14" t="s">
@@ -11741,7 +11740,7 @@
       </c>
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A316" s="1">
+      <c r="A316" s="27">
         <v>314</v>
       </c>
       <c r="B316" s="14" t="s">
@@ -11776,7 +11775,7 @@
       </c>
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A317" s="1">
+      <c r="A317" s="27">
         <v>315</v>
       </c>
       <c r="B317" s="14" t="s">
@@ -11811,7 +11810,7 @@
       </c>
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A318" s="1">
+      <c r="A318" s="27">
         <v>316</v>
       </c>
       <c r="B318" s="14" t="s">
@@ -11846,7 +11845,7 @@
       </c>
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A319" s="1">
+      <c r="A319" s="27">
         <v>317</v>
       </c>
       <c r="B319" s="14" t="s">
@@ -11881,7 +11880,7 @@
       </c>
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A320" s="1">
+      <c r="A320" s="27">
         <v>318</v>
       </c>
       <c r="B320" s="14" t="s">
@@ -11916,7 +11915,7 @@
       </c>
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A321" s="1">
+      <c r="A321" s="27">
         <v>319</v>
       </c>
       <c r="B321" s="14" t="s">
@@ -11951,7 +11950,7 @@
       </c>
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A322" s="1">
+      <c r="A322" s="27">
         <v>320</v>
       </c>
       <c r="B322" s="14" t="s">
@@ -11986,7 +11985,7 @@
       </c>
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A323" s="1">
+      <c r="A323" s="27">
         <v>321</v>
       </c>
       <c r="B323" s="4" t="s">
@@ -12021,7 +12020,7 @@
       </c>
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A324" s="1">
+      <c r="A324" s="27">
         <v>322</v>
       </c>
       <c r="B324" s="4" t="s">
@@ -12056,7 +12055,7 @@
       </c>
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A325" s="1">
+      <c r="A325" s="27">
         <v>323</v>
       </c>
       <c r="B325" s="4" t="s">
@@ -12091,7 +12090,7 @@
       </c>
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A326" s="1">
+      <c r="A326" s="27">
         <v>324</v>
       </c>
       <c r="B326" s="4" t="s">
@@ -12126,7 +12125,7 @@
       </c>
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A327" s="1">
+      <c r="A327" s="27">
         <v>325</v>
       </c>
       <c r="B327" s="4" t="s">
@@ -12161,7 +12160,7 @@
       </c>
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A328" s="1">
+      <c r="A328" s="27">
         <v>326</v>
       </c>
       <c r="B328" s="4" t="s">
@@ -12196,7 +12195,7 @@
       </c>
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A329" s="1">
+      <c r="A329" s="27">
         <v>327</v>
       </c>
       <c r="B329" s="4" t="s">
@@ -12231,7 +12230,7 @@
       </c>
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A330" s="1">
+      <c r="A330" s="27">
         <v>328</v>
       </c>
       <c r="B330" s="4" t="s">
@@ -12266,7 +12265,7 @@
       </c>
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A331" s="1">
+      <c r="A331" s="27">
         <v>329</v>
       </c>
       <c r="B331" s="4" t="s">
@@ -12301,7 +12300,7 @@
       </c>
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A332" s="1">
+      <c r="A332" s="27">
         <v>330</v>
       </c>
       <c r="B332" s="4" t="s">
@@ -12336,7 +12335,7 @@
       </c>
     </row>
     <row r="333" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A333" s="1">
+      <c r="A333" s="27">
         <v>331</v>
       </c>
       <c r="B333" s="4" t="s">
@@ -12371,7 +12370,7 @@
       </c>
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A334" s="1">
+      <c r="A334" s="27">
         <v>332</v>
       </c>
       <c r="B334" s="4" t="s">
@@ -12406,7 +12405,7 @@
       </c>
     </row>
     <row r="335" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A335" s="1">
+      <c r="A335" s="27">
         <v>333</v>
       </c>
       <c r="B335" s="4" t="s">
@@ -12441,7 +12440,7 @@
       </c>
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A336" s="1">
+      <c r="A336" s="27">
         <v>334</v>
       </c>
       <c r="B336" s="4" t="s">
@@ -12476,7 +12475,7 @@
       </c>
     </row>
     <row r="337" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A337" s="1">
+      <c r="A337" s="27">
         <v>335</v>
       </c>
       <c r="B337" s="4" t="s">
@@ -12511,7 +12510,7 @@
       </c>
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A338" s="1">
+      <c r="A338" s="27">
         <v>336</v>
       </c>
       <c r="B338" s="4" t="s">
@@ -12546,7 +12545,7 @@
       </c>
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A339" s="1">
+      <c r="A339" s="27">
         <v>337</v>
       </c>
       <c r="B339" s="7" t="s">
@@ -12581,7 +12580,7 @@
       </c>
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A340" s="1">
+      <c r="A340" s="27">
         <v>338</v>
       </c>
       <c r="B340" s="7" t="s">
@@ -12616,7 +12615,7 @@
       </c>
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A341" s="1">
+      <c r="A341" s="27">
         <v>339</v>
       </c>
       <c r="B341" s="7" t="s">
@@ -12651,7 +12650,7 @@
       </c>
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A342" s="1">
+      <c r="A342" s="27">
         <v>340</v>
       </c>
       <c r="B342" s="7" t="s">
@@ -12686,7 +12685,7 @@
       </c>
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A343" s="1">
+      <c r="A343" s="27">
         <v>341</v>
       </c>
       <c r="B343" s="7" t="s">
@@ -12721,7 +12720,7 @@
       </c>
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A344" s="1">
+      <c r="A344" s="27">
         <v>342</v>
       </c>
       <c r="B344" s="7" t="s">
@@ -12756,7 +12755,7 @@
       </c>
     </row>
     <row r="345" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A345" s="1">
+      <c r="A345" s="27">
         <v>343</v>
       </c>
       <c r="B345" s="7" t="s">
@@ -12791,7 +12790,7 @@
       </c>
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A346" s="1">
+      <c r="A346" s="27">
         <v>344</v>
       </c>
       <c r="B346" s="7" t="s">
@@ -12826,7 +12825,7 @@
       </c>
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A347" s="1">
+      <c r="A347" s="27">
         <v>345</v>
       </c>
       <c r="B347" s="7" t="s">
@@ -12861,7 +12860,7 @@
       </c>
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A348" s="1">
+      <c r="A348" s="27">
         <v>346</v>
       </c>
       <c r="B348" s="7" t="s">
@@ -12896,7 +12895,7 @@
       </c>
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A349" s="1">
+      <c r="A349" s="27">
         <v>347</v>
       </c>
       <c r="B349" s="7" t="s">
@@ -12931,7 +12930,7 @@
       </c>
     </row>
     <row r="350" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A350" s="1">
+      <c r="A350" s="27">
         <v>348</v>
       </c>
       <c r="B350" s="7" t="s">
@@ -12966,7 +12965,7 @@
       </c>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A351" s="1">
+      <c r="A351" s="27">
         <v>349</v>
       </c>
       <c r="B351" s="7" t="s">
@@ -13001,7 +13000,7 @@
       </c>
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A352" s="1">
+      <c r="A352" s="27">
         <v>350</v>
       </c>
       <c r="B352" s="7" t="s">
@@ -13036,7 +13035,7 @@
       </c>
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A353" s="1">
+      <c r="A353" s="27">
         <v>351</v>
       </c>
       <c r="B353" s="7" t="s">
@@ -13071,7 +13070,7 @@
       </c>
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A354" s="1">
+      <c r="A354" s="27">
         <v>352</v>
       </c>
       <c r="B354" s="7" t="s">
@@ -13106,7 +13105,7 @@
       </c>
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A355" s="1">
+      <c r="A355" s="27">
         <v>353</v>
       </c>
       <c r="B355" s="8" t="s">
@@ -13141,7 +13140,7 @@
       </c>
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A356" s="1">
+      <c r="A356" s="27">
         <v>354</v>
       </c>
       <c r="B356" s="8" t="s">
@@ -13176,7 +13175,7 @@
       </c>
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A357" s="1">
+      <c r="A357" s="27">
         <v>355</v>
       </c>
       <c r="B357" s="8" t="s">
@@ -13211,7 +13210,7 @@
       </c>
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A358" s="1">
+      <c r="A358" s="27">
         <v>356</v>
       </c>
       <c r="B358" s="8" t="s">
@@ -13246,7 +13245,7 @@
       </c>
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A359" s="1">
+      <c r="A359" s="27">
         <v>357</v>
       </c>
       <c r="B359" s="8" t="s">
@@ -13281,7 +13280,7 @@
       </c>
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A360" s="1">
+      <c r="A360" s="27">
         <v>358</v>
       </c>
       <c r="B360" s="8" t="s">
@@ -13316,7 +13315,7 @@
       </c>
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A361" s="1">
+      <c r="A361" s="27">
         <v>359</v>
       </c>
       <c r="B361" s="8" t="s">
@@ -13351,7 +13350,7 @@
       </c>
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A362" s="1">
+      <c r="A362" s="27">
         <v>360</v>
       </c>
       <c r="B362" s="8" t="s">
@@ -13386,7 +13385,7 @@
       </c>
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A363" s="1">
+      <c r="A363" s="27">
         <v>361</v>
       </c>
       <c r="B363" s="8" t="s">
@@ -13421,7 +13420,7 @@
       </c>
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A364" s="1">
+      <c r="A364" s="27">
         <v>362</v>
       </c>
       <c r="B364" s="8" t="s">
@@ -13456,7 +13455,7 @@
       </c>
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A365" s="1">
+      <c r="A365" s="27">
         <v>363</v>
       </c>
       <c r="B365" s="8" t="s">
@@ -13491,7 +13490,7 @@
       </c>
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A366" s="1">
+      <c r="A366" s="27">
         <v>364</v>
       </c>
       <c r="B366" s="8" t="s">
@@ -13526,7 +13525,7 @@
       </c>
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A367" s="1">
+      <c r="A367" s="27">
         <v>365</v>
       </c>
       <c r="B367" s="8" t="s">
@@ -13561,7 +13560,7 @@
       </c>
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A368" s="1">
+      <c r="A368" s="27">
         <v>366</v>
       </c>
       <c r="B368" s="8" t="s">
@@ -13596,7 +13595,7 @@
       </c>
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A369" s="1">
+      <c r="A369" s="27">
         <v>367</v>
       </c>
       <c r="B369" s="8" t="s">
@@ -13631,7 +13630,7 @@
       </c>
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A370" s="1">
+      <c r="A370" s="27">
         <v>368</v>
       </c>
       <c r="B370" s="8" t="s">
@@ -13666,7 +13665,7 @@
       </c>
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A371" s="1">
+      <c r="A371" s="27">
         <v>369</v>
       </c>
       <c r="B371" s="12" t="s">
@@ -13701,7 +13700,7 @@
       </c>
     </row>
     <row r="372" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A372" s="1">
+      <c r="A372" s="27">
         <v>370</v>
       </c>
       <c r="B372" s="12" t="s">
@@ -13736,7 +13735,7 @@
       </c>
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A373" s="1">
+      <c r="A373" s="27">
         <v>371</v>
       </c>
       <c r="B373" s="12" t="s">
@@ -13771,7 +13770,7 @@
       </c>
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A374" s="1">
+      <c r="A374" s="27">
         <v>372</v>
       </c>
       <c r="B374" s="12" t="s">
@@ -13806,7 +13805,7 @@
       </c>
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A375" s="1">
+      <c r="A375" s="27">
         <v>373</v>
       </c>
       <c r="B375" s="12" t="s">
@@ -13841,7 +13840,7 @@
       </c>
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A376" s="1">
+      <c r="A376" s="27">
         <v>374</v>
       </c>
       <c r="B376" s="12" t="s">
@@ -13876,7 +13875,7 @@
       </c>
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A377" s="1">
+      <c r="A377" s="27">
         <v>375</v>
       </c>
       <c r="B377" s="12" t="s">
@@ -13911,7 +13910,7 @@
       </c>
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A378" s="1">
+      <c r="A378" s="27">
         <v>376</v>
       </c>
       <c r="B378" s="12" t="s">
@@ -13946,7 +13945,7 @@
       </c>
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A379" s="1">
+      <c r="A379" s="27">
         <v>377</v>
       </c>
       <c r="B379" s="12" t="s">
@@ -13981,7 +13980,7 @@
       </c>
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A380" s="1">
+      <c r="A380" s="27">
         <v>378</v>
       </c>
       <c r="B380" s="12" t="s">
@@ -14016,7 +14015,7 @@
       </c>
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A381" s="1">
+      <c r="A381" s="27">
         <v>379</v>
       </c>
       <c r="B381" s="12" t="s">
@@ -14051,7 +14050,7 @@
       </c>
     </row>
     <row r="382" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A382" s="1">
+      <c r="A382" s="27">
         <v>380</v>
       </c>
       <c r="B382" s="12" t="s">
@@ -14086,7 +14085,7 @@
       </c>
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A383" s="1">
+      <c r="A383" s="27">
         <v>381</v>
       </c>
       <c r="B383" s="12" t="s">
@@ -14121,7 +14120,7 @@
       </c>
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A384" s="1">
+      <c r="A384" s="27">
         <v>382</v>
       </c>
       <c r="B384" s="12" t="s">
@@ -14156,7 +14155,7 @@
       </c>
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A385" s="1">
+      <c r="A385" s="27">
         <v>383</v>
       </c>
       <c r="B385" s="12" t="s">
@@ -14191,7 +14190,7 @@
       </c>
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A386" s="1">
+      <c r="A386" s="27">
         <v>384</v>
       </c>
       <c r="B386" s="12" t="s">
@@ -14226,7 +14225,7 @@
       </c>
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A387" s="1">
+      <c r="A387" s="27">
         <v>385</v>
       </c>
       <c r="B387" s="6" t="s">
@@ -14261,7 +14260,7 @@
       </c>
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A388" s="1">
+      <c r="A388" s="27">
         <v>386</v>
       </c>
       <c r="B388" s="6" t="s">
@@ -14296,7 +14295,7 @@
       </c>
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A389" s="1">
+      <c r="A389" s="27">
         <v>387</v>
       </c>
       <c r="B389" s="6" t="s">
@@ -14331,7 +14330,7 @@
       </c>
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A390" s="1">
+      <c r="A390" s="27">
         <v>388</v>
       </c>
       <c r="B390" s="6" t="s">
@@ -14366,7 +14365,7 @@
       </c>
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A391" s="1">
+      <c r="A391" s="27">
         <v>389</v>
       </c>
       <c r="B391" s="6" t="s">
@@ -14401,7 +14400,7 @@
       </c>
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A392" s="1">
+      <c r="A392" s="27">
         <v>390</v>
       </c>
       <c r="B392" s="6" t="s">
@@ -14436,7 +14435,7 @@
       </c>
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A393" s="1">
+      <c r="A393" s="27">
         <v>391</v>
       </c>
       <c r="B393" s="6" t="s">
@@ -14471,7 +14470,7 @@
       </c>
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A394" s="1">
+      <c r="A394" s="27">
         <v>392</v>
       </c>
       <c r="B394" s="6" t="s">
@@ -14506,7 +14505,7 @@
       </c>
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A395" s="1">
+      <c r="A395" s="27">
         <v>393</v>
       </c>
       <c r="B395" s="6" t="s">
@@ -14541,7 +14540,7 @@
       </c>
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A396" s="1">
+      <c r="A396" s="27">
         <v>394</v>
       </c>
       <c r="B396" s="6" t="s">
@@ -14576,7 +14575,7 @@
       </c>
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A397" s="1">
+      <c r="A397" s="27">
         <v>395</v>
       </c>
       <c r="B397" s="6" t="s">
@@ -14611,7 +14610,7 @@
       </c>
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A398" s="1">
+      <c r="A398" s="27">
         <v>396</v>
       </c>
       <c r="B398" s="7" t="s">
@@ -14646,7 +14645,7 @@
       </c>
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A399" s="1">
+      <c r="A399" s="27">
         <v>397</v>
       </c>
       <c r="B399" s="7" t="s">
@@ -14681,7 +14680,7 @@
       </c>
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A400" s="1">
+      <c r="A400" s="27">
         <v>398</v>
       </c>
       <c r="B400" s="7" t="s">
@@ -14716,7 +14715,7 @@
       </c>
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A401" s="1">
+      <c r="A401" s="27">
         <v>399</v>
       </c>
       <c r="B401" s="7" t="s">
@@ -14751,7 +14750,7 @@
       </c>
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A402" s="1">
+      <c r="A402" s="27">
         <v>400</v>
       </c>
       <c r="B402" s="7" t="s">
@@ -14786,7 +14785,7 @@
       </c>
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A403" s="1">
+      <c r="A403" s="27">
         <v>401</v>
       </c>
       <c r="B403" s="11" t="s">
@@ -14821,7 +14820,7 @@
       </c>
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A404" s="1">
+      <c r="A404" s="27">
         <v>402</v>
       </c>
       <c r="B404" s="11" t="s">
@@ -14856,7 +14855,7 @@
       </c>
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A405" s="1">
+      <c r="A405" s="27">
         <v>403</v>
       </c>
       <c r="B405" s="11" t="s">
@@ -14891,7 +14890,7 @@
       </c>
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A406" s="1">
+      <c r="A406" s="27">
         <v>404</v>
       </c>
       <c r="B406" s="11" t="s">
@@ -14926,7 +14925,7 @@
       </c>
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A407" s="1">
+      <c r="A407" s="27">
         <v>405</v>
       </c>
       <c r="B407" s="11" t="s">
@@ -14961,7 +14960,7 @@
       </c>
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A408" s="1">
+      <c r="A408" s="27">
         <v>406</v>
       </c>
       <c r="B408" s="11" t="s">
@@ -14996,7 +14995,7 @@
       </c>
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A409" s="1">
+      <c r="A409" s="27">
         <v>407</v>
       </c>
       <c r="B409" s="11" t="s">
@@ -15031,7 +15030,7 @@
       </c>
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A410" s="1">
+      <c r="A410" s="27">
         <v>408</v>
       </c>
       <c r="B410" s="11" t="s">
@@ -15066,7 +15065,7 @@
       </c>
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A411" s="1">
+      <c r="A411" s="27">
         <v>409</v>
       </c>
       <c r="B411" s="11" t="s">
@@ -15101,7 +15100,7 @@
       </c>
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A412" s="1">
+      <c r="A412" s="27">
         <v>410</v>
       </c>
       <c r="B412" s="11" t="s">
@@ -15136,7 +15135,7 @@
       </c>
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A413" s="1">
+      <c r="A413" s="27">
         <v>411</v>
       </c>
       <c r="B413" s="11" t="s">
@@ -15171,7 +15170,7 @@
       </c>
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A414" s="1">
+      <c r="A414" s="27">
         <v>412</v>
       </c>
       <c r="B414" s="12" t="s">
@@ -15206,7 +15205,7 @@
       </c>
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A415" s="1">
+      <c r="A415" s="27">
         <v>413</v>
       </c>
       <c r="B415" s="12" t="s">
@@ -15241,7 +15240,7 @@
       </c>
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A416" s="1">
+      <c r="A416" s="27">
         <v>414</v>
       </c>
       <c r="B416" s="12" t="s">
@@ -15276,7 +15275,7 @@
       </c>
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A417" s="1">
+      <c r="A417" s="27">
         <v>415</v>
       </c>
       <c r="B417" s="12" t="s">
@@ -15311,7 +15310,7 @@
       </c>
     </row>
     <row r="418" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A418" s="1">
+      <c r="A418" s="27">
         <v>416</v>
       </c>
       <c r="B418" s="12" t="s">
@@ -15346,7 +15345,7 @@
       </c>
     </row>
     <row r="419" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A419" s="1">
+      <c r="A419" s="27">
         <v>417</v>
       </c>
       <c r="B419" s="15" t="s">
@@ -15381,7 +15380,7 @@
       </c>
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A420" s="1">
+      <c r="A420" s="27">
         <v>418</v>
       </c>
       <c r="B420" s="15" t="s">
@@ -15416,7 +15415,7 @@
       </c>
     </row>
     <row r="421" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A421" s="1">
+      <c r="A421" s="27">
         <v>419</v>
       </c>
       <c r="B421" s="15" t="s">
@@ -15451,7 +15450,7 @@
       </c>
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A422" s="1">
+      <c r="A422" s="27">
         <v>420</v>
       </c>
       <c r="B422" s="15" t="s">
@@ -15486,7 +15485,7 @@
       </c>
     </row>
     <row r="423" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A423" s="1">
+      <c r="A423" s="27">
         <v>421</v>
       </c>
       <c r="B423" s="15" t="s">
@@ -15521,7 +15520,7 @@
       </c>
     </row>
     <row r="424" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A424" s="1">
+      <c r="A424" s="27">
         <v>422</v>
       </c>
       <c r="B424" s="15" t="s">
@@ -15556,7 +15555,7 @@
       </c>
     </row>
     <row r="425" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A425" s="1">
+      <c r="A425" s="27">
         <v>423</v>
       </c>
       <c r="B425" s="8" t="s">
@@ -15591,7 +15590,7 @@
       </c>
     </row>
     <row r="426" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A426" s="1">
+      <c r="A426" s="27">
         <v>424</v>
       </c>
       <c r="B426" s="8" t="s">
@@ -15626,7 +15625,7 @@
       </c>
     </row>
     <row r="427" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A427" s="1">
+      <c r="A427" s="27">
         <v>425</v>
       </c>
       <c r="B427" s="8" t="s">
@@ -15661,7 +15660,7 @@
       </c>
     </row>
     <row r="428" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A428" s="1">
+      <c r="A428" s="27">
         <v>426</v>
       </c>
       <c r="B428" s="8" t="s">
@@ -15696,7 +15695,7 @@
       </c>
     </row>
     <row r="429" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A429" s="1">
+      <c r="A429" s="27">
         <v>427</v>
       </c>
       <c r="B429" s="8" t="s">
@@ -15731,7 +15730,7 @@
       </c>
     </row>
     <row r="430" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A430" s="1">
+      <c r="A430" s="27">
         <v>428</v>
       </c>
       <c r="B430" s="8" t="s">
@@ -15766,7 +15765,7 @@
       </c>
     </row>
     <row r="431" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A431" s="1">
+      <c r="A431" s="27">
         <v>429</v>
       </c>
       <c r="B431" s="8" t="s">
@@ -15801,7 +15800,7 @@
       </c>
     </row>
     <row r="432" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A432" s="1">
+      <c r="A432" s="27">
         <v>430</v>
       </c>
       <c r="B432" s="8" t="s">
@@ -15836,7 +15835,7 @@
       </c>
     </row>
     <row r="433" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A433" s="1">
+      <c r="A433" s="27">
         <v>431</v>
       </c>
       <c r="B433" s="8" t="s">
@@ -15871,7 +15870,7 @@
       </c>
     </row>
     <row r="434" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A434" s="1">
+      <c r="A434" s="27">
         <v>432</v>
       </c>
       <c r="B434" s="8" t="s">
@@ -15906,7 +15905,7 @@
       </c>
     </row>
     <row r="435" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A435" s="1">
+      <c r="A435" s="27">
         <v>433</v>
       </c>
       <c r="B435" s="13" t="s">
@@ -15941,7 +15940,7 @@
       </c>
     </row>
     <row r="436" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A436" s="1">
+      <c r="A436" s="27">
         <v>434</v>
       </c>
       <c r="B436" s="13" t="s">
@@ -15976,7 +15975,7 @@
       </c>
     </row>
     <row r="437" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A437" s="1">
+      <c r="A437" s="27">
         <v>435</v>
       </c>
       <c r="B437" s="13" t="s">
@@ -16011,7 +16010,7 @@
       </c>
     </row>
     <row r="438" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A438" s="1">
+      <c r="A438" s="27">
         <v>436</v>
       </c>
       <c r="B438" s="13" t="s">
@@ -16046,7 +16045,7 @@
       </c>
     </row>
     <row r="439" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A439" s="1">
+      <c r="A439" s="27">
         <v>437</v>
       </c>
       <c r="B439" s="13" t="s">
@@ -16081,7 +16080,7 @@
       </c>
     </row>
     <row r="440" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A440" s="1">
+      <c r="A440" s="27">
         <v>438</v>
       </c>
       <c r="B440" s="13" t="s">
@@ -16116,7 +16115,7 @@
       </c>
     </row>
     <row r="441" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A441" s="1">
+      <c r="A441" s="27">
         <v>439</v>
       </c>
       <c r="B441" s="14" t="s">
@@ -16151,7 +16150,7 @@
       </c>
     </row>
     <row r="442" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A442" s="1">
+      <c r="A442" s="27">
         <v>440</v>
       </c>
       <c r="B442" s="14" t="s">
@@ -16186,7 +16185,7 @@
       </c>
     </row>
     <row r="443" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A443" s="1">
+      <c r="A443" s="27">
         <v>441</v>
       </c>
       <c r="B443" s="14" t="s">
@@ -16221,7 +16220,7 @@
       </c>
     </row>
     <row r="444" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A444" s="1">
+      <c r="A444" s="27">
         <v>442</v>
       </c>
       <c r="B444" s="14" t="s">
@@ -16256,7 +16255,7 @@
       </c>
     </row>
     <row r="445" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A445" s="1">
+      <c r="A445" s="27">
         <v>443</v>
       </c>
       <c r="B445" s="14" t="s">
@@ -16291,7 +16290,7 @@
       </c>
     </row>
     <row r="446" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A446" s="1">
+      <c r="A446" s="27">
         <v>444</v>
       </c>
       <c r="B446" s="14" t="s">
@@ -16326,7 +16325,7 @@
       </c>
     </row>
     <row r="447" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A447" s="1">
+      <c r="A447" s="27">
         <v>445</v>
       </c>
       <c r="B447" s="14" t="s">
@@ -16361,7 +16360,7 @@
       </c>
     </row>
     <row r="448" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A448" s="1">
+      <c r="A448" s="27">
         <v>446</v>
       </c>
       <c r="B448" s="14" t="s">
@@ -16396,7 +16395,7 @@
       </c>
     </row>
     <row r="449" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A449" s="1">
+      <c r="A449" s="27">
         <v>447</v>
       </c>
       <c r="B449" s="14" t="s">
@@ -16431,7 +16430,7 @@
       </c>
     </row>
     <row r="450" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A450" s="1">
+      <c r="A450" s="27">
         <v>448</v>
       </c>
       <c r="B450" s="14" t="s">
@@ -16466,7 +16465,7 @@
       </c>
     </row>
     <row r="451" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A451" s="1">
+      <c r="A451" s="27">
         <v>449</v>
       </c>
       <c r="B451" s="4" t="s">
@@ -16501,7 +16500,7 @@
       </c>
     </row>
     <row r="452" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A452" s="1">
+      <c r="A452" s="27">
         <v>450</v>
       </c>
       <c r="B452" s="4" t="s">
@@ -16536,7 +16535,7 @@
       </c>
     </row>
     <row r="453" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A453" s="1">
+      <c r="A453" s="27">
         <v>451</v>
       </c>
       <c r="B453" s="4" t="s">
@@ -16571,7 +16570,7 @@
       </c>
     </row>
     <row r="454" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A454" s="1">
+      <c r="A454" s="27">
         <v>452</v>
       </c>
       <c r="B454" s="4" t="s">
@@ -16606,7 +16605,7 @@
       </c>
     </row>
     <row r="455" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A455" s="1">
+      <c r="A455" s="27">
         <v>453</v>
       </c>
       <c r="B455" s="4" t="s">
@@ -16641,7 +16640,7 @@
       </c>
     </row>
     <row r="456" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A456" s="1">
+      <c r="A456" s="27">
         <v>454</v>
       </c>
       <c r="B456" s="4" t="s">
@@ -16676,7 +16675,7 @@
       </c>
     </row>
     <row r="457" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A457" s="1">
+      <c r="A457" s="27">
         <v>455</v>
       </c>
       <c r="B457" s="4" t="s">
@@ -16711,7 +16710,7 @@
       </c>
     </row>
     <row r="458" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A458" s="1">
+      <c r="A458" s="27">
         <v>456</v>
       </c>
       <c r="B458" s="4" t="s">
@@ -16746,7 +16745,7 @@
       </c>
     </row>
     <row r="459" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A459" s="1">
+      <c r="A459" s="27">
         <v>457</v>
       </c>
       <c r="B459" s="4" t="s">
@@ -16781,7 +16780,7 @@
       </c>
     </row>
     <row r="460" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A460" s="1">
+      <c r="A460" s="27">
         <v>458</v>
       </c>
       <c r="B460" s="4" t="s">
@@ -16816,7 +16815,7 @@
       </c>
     </row>
     <row r="461" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A461" s="1">
+      <c r="A461" s="27">
         <v>459</v>
       </c>
       <c r="B461" s="4" t="s">
@@ -16851,7 +16850,7 @@
       </c>
     </row>
     <row r="462" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A462" s="1">
+      <c r="A462" s="27">
         <v>460</v>
       </c>
       <c r="B462" s="4" t="s">
@@ -16886,7 +16885,7 @@
       </c>
     </row>
     <row r="463" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A463" s="1">
+      <c r="A463" s="27">
         <v>461</v>
       </c>
       <c r="B463" s="4" t="s">
@@ -16921,7 +16920,7 @@
       </c>
     </row>
     <row r="464" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A464" s="1">
+      <c r="A464" s="27">
         <v>462</v>
       </c>
       <c r="B464" s="4" t="s">
@@ -16956,7 +16955,7 @@
       </c>
     </row>
     <row r="465" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A465" s="1">
+      <c r="A465" s="27">
         <v>463</v>
       </c>
       <c r="B465" s="4" t="s">
@@ -16991,7 +16990,7 @@
       </c>
     </row>
     <row r="466" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A466" s="1">
+      <c r="A466" s="27">
         <v>464</v>
       </c>
       <c r="B466" s="4" t="s">
@@ -17026,7 +17025,7 @@
       </c>
     </row>
     <row r="467" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A467" s="1">
+      <c r="A467" s="27">
         <v>465</v>
       </c>
       <c r="B467" s="7" t="s">
@@ -17061,7 +17060,7 @@
       </c>
     </row>
     <row r="468" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A468" s="1">
+      <c r="A468" s="27">
         <v>466</v>
       </c>
       <c r="B468" s="7" t="s">
@@ -17096,7 +17095,7 @@
       </c>
     </row>
     <row r="469" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A469" s="1">
+      <c r="A469" s="27">
         <v>467</v>
       </c>
       <c r="B469" s="7" t="s">
@@ -17131,7 +17130,7 @@
       </c>
     </row>
     <row r="470" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A470" s="1">
+      <c r="A470" s="27">
         <v>468</v>
       </c>
       <c r="B470" s="7" t="s">
@@ -17166,7 +17165,7 @@
       </c>
     </row>
     <row r="471" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A471" s="1">
+      <c r="A471" s="27">
         <v>469</v>
       </c>
       <c r="B471" s="7" t="s">
@@ -17201,7 +17200,7 @@
       </c>
     </row>
     <row r="472" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A472" s="1">
+      <c r="A472" s="27">
         <v>470</v>
       </c>
       <c r="B472" s="7" t="s">
@@ -17236,7 +17235,7 @@
       </c>
     </row>
     <row r="473" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A473" s="1">
+      <c r="A473" s="27">
         <v>471</v>
       </c>
       <c r="B473" s="7" t="s">
@@ -17271,7 +17270,7 @@
       </c>
     </row>
     <row r="474" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A474" s="1">
+      <c r="A474" s="27">
         <v>472</v>
       </c>
       <c r="B474" s="7" t="s">
@@ -17306,7 +17305,7 @@
       </c>
     </row>
     <row r="475" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A475" s="1">
+      <c r="A475" s="27">
         <v>473</v>
       </c>
       <c r="B475" s="7" t="s">
@@ -17341,7 +17340,7 @@
       </c>
     </row>
     <row r="476" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A476" s="1">
+      <c r="A476" s="27">
         <v>474</v>
       </c>
       <c r="B476" s="7" t="s">
@@ -17376,7 +17375,7 @@
       </c>
     </row>
     <row r="477" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A477" s="1">
+      <c r="A477" s="27">
         <v>475</v>
       </c>
       <c r="B477" s="7" t="s">
@@ -17411,7 +17410,7 @@
       </c>
     </row>
     <row r="478" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A478" s="1">
+      <c r="A478" s="27">
         <v>476</v>
       </c>
       <c r="B478" s="7" t="s">
@@ -17446,7 +17445,7 @@
       </c>
     </row>
     <row r="479" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A479" s="1">
+      <c r="A479" s="27">
         <v>477</v>
       </c>
       <c r="B479" s="7" t="s">
@@ -17481,7 +17480,7 @@
       </c>
     </row>
     <row r="480" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A480" s="1">
+      <c r="A480" s="27">
         <v>478</v>
       </c>
       <c r="B480" s="7" t="s">
@@ -17516,7 +17515,7 @@
       </c>
     </row>
     <row r="481" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A481" s="1">
+      <c r="A481" s="27">
         <v>479</v>
       </c>
       <c r="B481" s="7" t="s">
@@ -17551,7 +17550,7 @@
       </c>
     </row>
     <row r="482" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A482" s="1">
+      <c r="A482" s="27">
         <v>480</v>
       </c>
       <c r="B482" s="7" t="s">
@@ -17586,7 +17585,7 @@
       </c>
     </row>
     <row r="483" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A483" s="1">
+      <c r="A483" s="27">
         <v>481</v>
       </c>
       <c r="B483" s="8" t="s">
@@ -17621,7 +17620,7 @@
       </c>
     </row>
     <row r="484" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A484" s="1">
+      <c r="A484" s="27">
         <v>482</v>
       </c>
       <c r="B484" s="8" t="s">
@@ -17656,7 +17655,7 @@
       </c>
     </row>
     <row r="485" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A485" s="1">
+      <c r="A485" s="27">
         <v>483</v>
       </c>
       <c r="B485" s="8" t="s">
@@ -17691,7 +17690,7 @@
       </c>
     </row>
     <row r="486" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A486" s="1">
+      <c r="A486" s="27">
         <v>484</v>
       </c>
       <c r="B486" s="8" t="s">
@@ -17726,7 +17725,7 @@
       </c>
     </row>
     <row r="487" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A487" s="1">
+      <c r="A487" s="27">
         <v>485</v>
       </c>
       <c r="B487" s="8" t="s">
@@ -17761,7 +17760,7 @@
       </c>
     </row>
     <row r="488" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A488" s="1">
+      <c r="A488" s="27">
         <v>486</v>
       </c>
       <c r="B488" s="8" t="s">
@@ -17796,7 +17795,7 @@
       </c>
     </row>
     <row r="489" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A489" s="1">
+      <c r="A489" s="27">
         <v>487</v>
       </c>
       <c r="B489" s="8" t="s">
@@ -17831,7 +17830,7 @@
       </c>
     </row>
     <row r="490" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A490" s="1">
+      <c r="A490" s="27">
         <v>488</v>
       </c>
       <c r="B490" s="8" t="s">
@@ -17866,7 +17865,7 @@
       </c>
     </row>
     <row r="491" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A491" s="1">
+      <c r="A491" s="27">
         <v>489</v>
       </c>
       <c r="B491" s="8" t="s">
@@ -17901,7 +17900,7 @@
       </c>
     </row>
     <row r="492" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A492" s="1">
+      <c r="A492" s="27">
         <v>490</v>
       </c>
       <c r="B492" s="8" t="s">
@@ -17936,7 +17935,7 @@
       </c>
     </row>
     <row r="493" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A493" s="1">
+      <c r="A493" s="27">
         <v>491</v>
       </c>
       <c r="B493" s="8" t="s">
@@ -17971,7 +17970,7 @@
       </c>
     </row>
     <row r="494" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A494" s="1">
+      <c r="A494" s="27">
         <v>492</v>
       </c>
       <c r="B494" s="8" t="s">
@@ -18006,7 +18005,7 @@
       </c>
     </row>
     <row r="495" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A495" s="1">
+      <c r="A495" s="27">
         <v>493</v>
       </c>
       <c r="B495" s="8" t="s">
@@ -18041,7 +18040,7 @@
       </c>
     </row>
     <row r="496" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A496" s="1">
+      <c r="A496" s="27">
         <v>494</v>
       </c>
       <c r="B496" s="8" t="s">
@@ -18076,7 +18075,7 @@
       </c>
     </row>
     <row r="497" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A497" s="1">
+      <c r="A497" s="27">
         <v>495</v>
       </c>
       <c r="B497" s="8" t="s">
@@ -18111,7 +18110,7 @@
       </c>
     </row>
     <row r="498" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A498" s="1">
+      <c r="A498" s="27">
         <v>496</v>
       </c>
       <c r="B498" s="8" t="s">
@@ -18146,7 +18145,7 @@
       </c>
     </row>
     <row r="499" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A499" s="1">
+      <c r="A499" s="27">
         <v>497</v>
       </c>
       <c r="B499" s="12" t="s">
@@ -18181,7 +18180,7 @@
       </c>
     </row>
     <row r="500" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A500" s="1">
+      <c r="A500" s="27">
         <v>498</v>
       </c>
       <c r="B500" s="12" t="s">
@@ -18216,7 +18215,7 @@
       </c>
     </row>
     <row r="501" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A501" s="1">
+      <c r="A501" s="27">
         <v>499</v>
       </c>
       <c r="B501" s="12" t="s">
@@ -18251,7 +18250,7 @@
       </c>
     </row>
     <row r="502" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A502" s="1">
+      <c r="A502" s="27">
         <v>500</v>
       </c>
       <c r="B502" s="12" t="s">
@@ -18286,7 +18285,7 @@
       </c>
     </row>
     <row r="503" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A503" s="1">
+      <c r="A503" s="27">
         <v>501</v>
       </c>
       <c r="B503" s="12" t="s">
@@ -18321,7 +18320,7 @@
       </c>
     </row>
     <row r="504" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A504" s="1">
+      <c r="A504" s="27">
         <v>502</v>
       </c>
       <c r="B504" s="12" t="s">
@@ -18356,7 +18355,7 @@
       </c>
     </row>
     <row r="505" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A505" s="1">
+      <c r="A505" s="27">
         <v>503</v>
       </c>
       <c r="B505" s="12" t="s">
@@ -18391,7 +18390,7 @@
       </c>
     </row>
     <row r="506" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A506" s="1">
+      <c r="A506" s="27">
         <v>504</v>
       </c>
       <c r="B506" s="12" t="s">
@@ -18426,7 +18425,7 @@
       </c>
     </row>
     <row r="507" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A507" s="1">
+      <c r="A507" s="27">
         <v>505</v>
       </c>
       <c r="B507" s="12" t="s">
@@ -18461,7 +18460,7 @@
       </c>
     </row>
     <row r="508" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A508" s="1">
+      <c r="A508" s="27">
         <v>506</v>
       </c>
       <c r="B508" s="12" t="s">
@@ -18496,7 +18495,7 @@
       </c>
     </row>
     <row r="509" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A509" s="1">
+      <c r="A509" s="27">
         <v>507</v>
       </c>
       <c r="B509" s="12" t="s">
@@ -18531,7 +18530,7 @@
       </c>
     </row>
     <row r="510" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A510" s="1">
+      <c r="A510" s="27">
         <v>508</v>
       </c>
       <c r="B510" s="12" t="s">
@@ -18566,7 +18565,7 @@
       </c>
     </row>
     <row r="511" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A511" s="1">
+      <c r="A511" s="27">
         <v>509</v>
       </c>
       <c r="B511" s="12" t="s">
@@ -18601,7 +18600,7 @@
       </c>
     </row>
     <row r="512" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A512" s="1">
+      <c r="A512" s="27">
         <v>510</v>
       </c>
       <c r="B512" s="12" t="s">
@@ -18636,7 +18635,7 @@
       </c>
     </row>
     <row r="513" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A513" s="1">
+      <c r="A513" s="27">
         <v>511</v>
       </c>
       <c r="B513" s="12" t="s">
@@ -18671,7 +18670,7 @@
       </c>
     </row>
     <row r="514" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A514" s="1">
+      <c r="A514" s="27">
         <v>512</v>
       </c>
       <c r="B514" s="12" t="s">
@@ -18704,14 +18703,6 @@
       <c r="K514" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="J515" s="27"/>
-      <c r="K515" s="27"/>
-    </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="J516" s="27"/>
-      <c r="K516" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
